--- a/コピー総務省概算要求詳細.xlsx
+++ b/コピー総務省概算要求詳細.xlsx
@@ -1046,10 +1046,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マイナンバーカードを活用した住民総活躍・地域の消費拡大サイクル構築プロジェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>11．国民が成果を実感することのできる郵政民営化の推進</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2146,6 +2142,10 @@
     <rPh sb="6" eb="8">
       <t>ケイヒ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイナンバーカードを活用した住民総活躍・地域の消費拡大サイクル構築プロジェクト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2358,17 +2358,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2376,8 +2367,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2388,37 +2427,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2430,35 +2454,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2764,9 +2764,9 @@
   <dimension ref="A1:O194"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="O45" sqref="O45"/>
+      <selection pane="bottomLeft" activeCell="C130" sqref="C130:C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2820,221 +2820,221 @@
         <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="19">
+      <c r="G2" s="22">
         <v>54.4</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="22">
         <v>31</v>
       </c>
-      <c r="I2" s="43">
+      <c r="I2" s="46">
         <v>31</v>
       </c>
       <c r="J2" s="1">
         <v>18.7</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22">
         <v>19.100000000000001</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="46">
         <v>19.100000000000001</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="43"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="46"/>
       <c r="J3" s="1">
         <v>10.1</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="43"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="46"/>
       <c r="N3" s="3"/>
       <c r="O3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="43"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="46"/>
       <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="43"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="46"/>
       <c r="N4" s="3"/>
       <c r="O4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="43"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="43"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="46"/>
       <c r="N5" s="3"/>
       <c r="O5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="43"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="43"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="46"/>
       <c r="N6" s="3"/>
       <c r="O6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="43"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="1">
         <v>6</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="43"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="46"/>
       <c r="N7" s="3"/>
       <c r="O7" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="43"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="1">
         <v>15.7</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="43"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="46"/>
       <c r="N8" s="3"/>
       <c r="O8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="43"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="1">
         <v>1.2</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="43"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="46"/>
       <c r="N9" s="3"/>
       <c r="O9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="14" t="s">
         <v>9</v>
       </c>
@@ -3042,31 +3042,31 @@
         <v>10</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="20"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="1">
         <v>0.6</v>
       </c>
       <c r="J10" s="2">
         <v>0.6</v>
       </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="20"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="23"/>
       <c r="M10" s="1">
         <v>0.6</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="23" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="19" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -3075,82 +3075,82 @@
       <c r="F11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="19">
+      <c r="G11" s="24"/>
+      <c r="H11" s="22">
         <v>13</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="46">
         <v>11</v>
       </c>
       <c r="J11" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="19">
+      <c r="K11" s="24"/>
+      <c r="L11" s="22">
         <v>13.2</v>
       </c>
-      <c r="M11" s="40">
+      <c r="M11" s="48">
         <v>10</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="29"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="43"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="2">
         <v>2.4</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="41"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="49"/>
       <c r="N12" s="3"/>
       <c r="O12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="43"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="2">
         <v>0.8</v>
       </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="42"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="50"/>
       <c r="N13" s="3"/>
       <c r="O13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="31"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="4" t="s">
         <v>26</v>
       </c>
@@ -3158,28 +3158,28 @@
         <v>27</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="1">
         <v>1.9</v>
       </c>
       <c r="J14" s="2">
         <v>1.9</v>
       </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="1">
         <v>1.4</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="31"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="4" t="s">
         <v>28</v>
       </c>
@@ -3187,28 +3187,28 @@
         <v>29</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="1">
         <v>1.5</v>
       </c>
       <c r="J15" s="1">
         <v>1.5</v>
       </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="1">
         <v>1.2</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="31"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="4" t="s">
         <v>30</v>
       </c>
@@ -3216,28 +3216,28 @@
         <v>31</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="2">
         <v>0.7</v>
       </c>
       <c r="J16" s="1">
         <v>0.7</v>
       </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="2">
         <v>0.4</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="31"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="13" t="s">
         <v>32</v>
       </c>
@@ -3245,28 +3245,28 @@
         <v>33</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="2">
         <v>0.1</v>
       </c>
       <c r="J17" s="1">
         <v>0.1</v>
       </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="2">
         <v>0.1</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="13" t="s">
         <v>34</v>
       </c>
@@ -3274,28 +3274,28 @@
         <v>35</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="20"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="2">
         <v>0.2</v>
       </c>
       <c r="J18" s="1">
         <v>0.2</v>
       </c>
-      <c r="K18" s="25"/>
-      <c r="L18" s="20"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="2">
         <v>0.2</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="23" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -3307,8 +3307,8 @@
       <c r="F19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="19">
+      <c r="G19" s="24"/>
+      <c r="H19" s="22">
         <v>5.2</v>
       </c>
       <c r="I19" s="2">
@@ -3317,8 +3317,8 @@
       <c r="J19" s="2">
         <v>0.2</v>
       </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="19">
+      <c r="K19" s="24"/>
+      <c r="L19" s="22">
         <v>4.2</v>
       </c>
       <c r="M19" s="2">
@@ -3326,13 +3326,13 @@
       </c>
       <c r="N19" s="3"/>
       <c r="O19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="24"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
@@ -3340,28 +3340,28 @@
         <v>41</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="20"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="2">
         <v>5</v>
       </c>
       <c r="J20" s="1">
         <v>5</v>
       </c>
-      <c r="K20" s="25"/>
-      <c r="L20" s="20"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="2">
         <v>4</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -3371,8 +3371,8 @@
         <v>44</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="19">
+      <c r="G21" s="24"/>
+      <c r="H21" s="22">
         <v>6.3</v>
       </c>
       <c r="I21" s="2">
@@ -3381,8 +3381,8 @@
       <c r="J21" s="2">
         <v>1.3</v>
       </c>
-      <c r="K21" s="25"/>
-      <c r="L21" s="19">
+      <c r="K21" s="24"/>
+      <c r="L21" s="22">
         <v>5.3</v>
       </c>
       <c r="M21" s="2">
@@ -3390,13 +3390,13 @@
       </c>
       <c r="N21" s="3"/>
       <c r="O21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="4" t="s">
         <v>45</v>
       </c>
@@ -3404,28 +3404,28 @@
         <v>46</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="2">
         <v>0.1</v>
       </c>
       <c r="J22" s="2">
         <v>0.1</v>
       </c>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
       <c r="M22" s="2">
         <v>0.1</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="13" t="s">
         <v>47</v>
       </c>
@@ -3433,111 +3433,111 @@
         <v>41</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="2">
         <v>5</v>
       </c>
       <c r="J23" s="1">
         <v>5</v>
       </c>
-      <c r="K23" s="25"/>
-      <c r="L23" s="20"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="2">
         <v>4</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="23" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="30">
+      <c r="G24" s="24"/>
+      <c r="H24" s="28">
         <v>4.3</v>
       </c>
-      <c r="I24" s="44">
+      <c r="I24" s="45">
         <v>4.3</v>
       </c>
       <c r="J24" s="2">
         <v>4.3</v>
       </c>
-      <c r="K24" s="25"/>
-      <c r="L24" s="30">
+      <c r="K24" s="24"/>
+      <c r="L24" s="28">
         <v>2.9</v>
       </c>
-      <c r="M24" s="44">
+      <c r="M24" s="45">
         <v>2.9</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="34"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="44"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="45"/>
       <c r="J25" s="2">
         <v>1</v>
       </c>
-      <c r="K25" s="25"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="44"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="45"/>
       <c r="N25" s="3"/>
       <c r="O25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="44"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="2">
         <v>5</v>
       </c>
-      <c r="K26" s="25"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="44"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="45"/>
       <c r="N26" s="3"/>
       <c r="O26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="23" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -3547,8 +3547,8 @@
         <v>52</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="19">
+      <c r="G27" s="24"/>
+      <c r="H27" s="22">
         <v>0.8</v>
       </c>
       <c r="I27" s="2">
@@ -3557,8 +3557,8 @@
       <c r="J27" s="2">
         <v>0.2</v>
       </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="19">
+      <c r="K27" s="24"/>
+      <c r="L27" s="22">
         <v>0.7</v>
       </c>
       <c r="M27" s="2">
@@ -3566,13 +3566,13 @@
       </c>
       <c r="N27" s="3"/>
       <c r="O27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="31"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="13" t="s">
         <v>53</v>
       </c>
@@ -3582,24 +3582,24 @@
       <c r="F28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
       <c r="I28" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
       <c r="M28" s="1"/>
       <c r="N28" s="3"/>
       <c r="O28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="24"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="13" t="s">
         <v>57</v>
       </c>
@@ -3607,30 +3607,30 @@
         <v>58</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="1">
         <v>0.6</v>
       </c>
       <c r="J29" s="1">
         <v>0.6</v>
       </c>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
       <c r="M29" s="1">
         <v>0.6</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="29"/>
-      <c r="B30" s="23" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -3640,10 +3640,10 @@
         <v>65</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="19">
+      <c r="G30" s="22">
         <v>156350.39999999999</v>
       </c>
-      <c r="H30" s="46">
+      <c r="H30" s="47">
         <v>156350.39999999999</v>
       </c>
       <c r="I30" s="5">
@@ -3652,8 +3652,8 @@
       <c r="J30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="46">
+      <c r="K30" s="22"/>
+      <c r="L30" s="47">
         <v>156026.4</v>
       </c>
       <c r="M30" s="5">
@@ -3664,27 +3664,27 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="29"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="35" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="42" t="s">
         <v>64</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="30">
+      <c r="G31" s="24"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="28">
         <v>355.4</v>
       </c>
       <c r="J31" s="2">
         <v>283.39999999999998</v>
       </c>
-      <c r="K31" s="25"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="32">
+      <c r="K31" s="24"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="36">
         <v>355.4</v>
       </c>
       <c r="N31" s="1">
@@ -3692,35 +3692,35 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="29"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="36"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="30"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="28"/>
       <c r="J32" s="2">
         <v>72</v>
       </c>
-      <c r="K32" s="20"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="32"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="36"/>
       <c r="N32" s="1">
         <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D33" s="13" t="s">
@@ -3730,10 +3730,10 @@
         <v>72</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="19">
+      <c r="G33" s="22">
         <v>268.89999999999998</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="22">
         <v>28.1</v>
       </c>
       <c r="I33" s="2">
@@ -3742,8 +3742,8 @@
       <c r="J33" s="2">
         <v>17</v>
       </c>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19">
+      <c r="K33" s="22"/>
+      <c r="L33" s="22">
         <v>18.8</v>
       </c>
       <c r="M33" s="2">
@@ -3751,13 +3751,13 @@
       </c>
       <c r="N33" s="3"/>
       <c r="O33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="29"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="29"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="13" t="s">
         <v>73</v>
       </c>
@@ -3767,28 +3767,28 @@
       <c r="F34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="2">
         <v>6</v>
       </c>
       <c r="J34" s="2">
         <v>6</v>
       </c>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
       <c r="M34" s="2">
         <v>3.8</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="29"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="29"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="13" t="s">
         <v>75</v>
       </c>
@@ -3798,26 +3798,26 @@
       <c r="F35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="2">
         <v>2</v>
       </c>
       <c r="J35" s="2">
         <v>2</v>
       </c>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
       <c r="M35" s="1"/>
       <c r="N35" s="3"/>
       <c r="O35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="29"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="29"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="13" t="s">
         <v>77</v>
       </c>
@@ -3827,25 +3827,25 @@
       <c r="F36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="20"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="2">
         <v>3.1</v>
       </c>
       <c r="J36" s="2">
         <v>3.1</v>
       </c>
-      <c r="K36" s="25"/>
-      <c r="L36" s="20"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="23"/>
       <c r="M36" s="1"/>
       <c r="N36" s="3"/>
       <c r="O36" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" s="29"/>
-      <c r="B37" s="47"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="4" t="s">
         <v>79</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>80</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="25"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="1">
         <v>0.5</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>0.5</v>
       </c>
       <c r="J37" s="1"/>
-      <c r="K37" s="25"/>
+      <c r="K37" s="24"/>
       <c r="L37" s="1">
         <v>3.3</v>
       </c>
@@ -3871,108 +3871,108 @@
       </c>
       <c r="N37" s="3"/>
       <c r="O37" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="29"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="29" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="31" t="s">
         <v>82</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="19">
+      <c r="G38" s="24"/>
+      <c r="H38" s="22">
         <v>240.4</v>
       </c>
-      <c r="I38" s="26">
+      <c r="I38" s="39">
         <v>226.8</v>
       </c>
       <c r="J38" s="1">
         <v>3.6</v>
       </c>
-      <c r="K38" s="25"/>
-      <c r="L38" s="19">
+      <c r="K38" s="24"/>
+      <c r="L38" s="22">
         <v>202.8</v>
       </c>
-      <c r="M38" s="26">
+      <c r="M38" s="39">
         <v>189.7</v>
       </c>
       <c r="N38" s="3"/>
       <c r="O38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="29"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="45"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="27"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="40"/>
       <c r="J39" s="2">
         <v>0.6</v>
       </c>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="27"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="40"/>
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="29"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="45"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="31"/>
       <c r="E40" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="27"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="40"/>
       <c r="J40" s="2">
         <v>96</v>
       </c>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="27"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="40"/>
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="29"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="45"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="28"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="41"/>
       <c r="J41" s="2">
         <v>123.5</v>
       </c>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="28"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="41"/>
       <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="A42" s="29"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="29"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="13" t="s">
         <v>87</v>
       </c>
@@ -3980,127 +3980,127 @@
         <v>88</v>
       </c>
       <c r="F42" s="1"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="2">
         <v>0.3</v>
       </c>
       <c r="J42" s="1">
         <v>0.3</v>
       </c>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
       <c r="M42" s="1">
         <v>0.3</v>
       </c>
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="29"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="35" t="s">
+      <c r="A43" s="19"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="42" t="s">
         <v>89</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F43" s="1"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="26">
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="39">
         <v>13.2</v>
       </c>
       <c r="J43" s="1">
         <v>10.1</v>
       </c>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
       <c r="M43" s="1">
         <v>12.8</v>
       </c>
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="29"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="36"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="44"/>
       <c r="E44" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F44" s="1"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="28"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="41"/>
       <c r="J44" s="2">
         <v>3</v>
       </c>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
       <c r="M44" s="1"/>
       <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29" t="s">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="19" t="s">
         <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F45" s="1"/>
-      <c r="G45" s="19">
+      <c r="G45" s="22">
         <v>765.4</v>
       </c>
-      <c r="H45" s="19">
+      <c r="H45" s="22">
         <v>582.9</v>
       </c>
-      <c r="I45" s="26">
+      <c r="I45" s="39">
         <v>66.3</v>
       </c>
       <c r="J45" s="2">
         <v>33.799999999999997</v>
       </c>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19">
+      <c r="K45" s="22"/>
+      <c r="L45" s="22">
         <v>467.8</v>
       </c>
-      <c r="M45" s="26">
+      <c r="M45" s="39">
         <v>51.1</v>
       </c>
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F46" s="1"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="28"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="41"/>
       <c r="J46" s="2">
         <v>32.5</v>
       </c>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="28"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="41"/>
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
       <c r="D47" s="4" t="s">
         <v>97</v>
       </c>
@@ -4110,25 +4110,25 @@
       <c r="F47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
       <c r="I47" s="1">
         <v>7.4</v>
       </c>
       <c r="J47" s="1">
         <v>7</v>
       </c>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
       <c r="M47" s="1">
         <v>0.3</v>
       </c>
       <c r="N47" s="3"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
       <c r="D48" s="4" t="s">
         <v>98</v>
       </c>
@@ -4138,72 +4138,72 @@
       <c r="F48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
       <c r="I48" s="1">
         <v>11</v>
       </c>
       <c r="J48" s="2">
         <v>11</v>
       </c>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
       <c r="M48" s="2">
         <v>5</v>
       </c>
       <c r="N48" s="3"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="35" t="s">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="42" t="s">
         <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F49" s="1"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="32">
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="36">
         <v>543</v>
       </c>
       <c r="J49" s="2">
         <v>207.3</v>
       </c>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="32">
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="36">
         <v>450.3</v>
       </c>
       <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="36"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F50" s="1"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="32"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="36"/>
       <c r="J50" s="2">
         <v>328</v>
       </c>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="32"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="36"/>
       <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29" t="s">
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19" t="s">
         <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -4212,64 +4212,64 @@
       <c r="F51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="19">
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="22">
         <v>21.6</v>
       </c>
       <c r="J51" s="2">
         <v>11.1</v>
       </c>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="19">
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="22">
         <v>12.1</v>
       </c>
       <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
       <c r="E52" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F52" s="1"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
       <c r="J52" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
       <c r="N52" s="3"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
       <c r="E53" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F53" s="1"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
       <c r="J53" s="1">
         <v>10.5</v>
       </c>
-      <c r="K53" s="25"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
       <c r="N53" s="3"/>
     </row>
     <row r="54" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="4" t="s">
         <v>109</v>
       </c>
@@ -4280,7 +4280,7 @@
       <c r="F54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G54" s="25"/>
+      <c r="G54" s="24"/>
       <c r="H54" s="1" t="s">
         <v>111</v>
       </c>
@@ -4288,7 +4288,7 @@
       <c r="J54" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K54" s="25"/>
+      <c r="K54" s="24"/>
       <c r="L54" s="1" t="s">
         <v>112</v>
       </c>
@@ -4296,57 +4296,57 @@
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29" t="s">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="33"/>
+      <c r="D55" s="25"/>
       <c r="E55" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F55" s="1"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="19">
+      <c r="G55" s="24"/>
+      <c r="H55" s="22">
         <v>10</v>
       </c>
-      <c r="I55" s="19"/>
+      <c r="I55" s="22"/>
       <c r="J55" s="2">
         <v>10</v>
       </c>
-      <c r="K55" s="25"/>
-      <c r="L55" s="19">
+      <c r="K55" s="24"/>
+      <c r="L55" s="22">
         <v>12.6</v>
       </c>
-      <c r="M55" s="19"/>
+      <c r="M55" s="22"/>
       <c r="N55" s="3"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="33"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G56" s="25"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
       <c r="J56" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K56" s="25"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
       <c r="N56" s="3"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29" t="s">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19" t="s">
         <v>118</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -4356,8 +4356,8 @@
         <v>121</v>
       </c>
       <c r="F57" s="1"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="19">
+      <c r="G57" s="24"/>
+      <c r="H57" s="22">
         <v>19.5</v>
       </c>
       <c r="I57" s="1">
@@ -4366,8 +4366,8 @@
       <c r="J57" s="1">
         <v>15.5</v>
       </c>
-      <c r="K57" s="25"/>
-      <c r="L57" s="19">
+      <c r="K57" s="24"/>
+      <c r="L57" s="22">
         <v>18.2</v>
       </c>
       <c r="M57" s="1">
@@ -4376,9 +4376,9 @@
       <c r="N57" s="3"/>
     </row>
     <row r="58" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="4" t="s">
         <v>122</v>
       </c>
@@ -4386,25 +4386,25 @@
         <v>123</v>
       </c>
       <c r="F58" s="1"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
       <c r="I58" s="1">
         <v>4</v>
       </c>
       <c r="J58" s="2">
         <v>4</v>
       </c>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
       <c r="M58" s="1">
         <v>2.9</v>
       </c>
       <c r="N58" s="3"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="4" t="s">
         <v>124</v>
       </c>
@@ -4414,24 +4414,24 @@
       <c r="F59" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G59" s="25"/>
-      <c r="H59" s="20"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="23"/>
       <c r="I59" s="1" t="s">
         <v>125</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K59" s="25"/>
-      <c r="L59" s="20"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="23"/>
       <c r="M59" s="1" t="s">
         <v>126</v>
       </c>
       <c r="N59" s="3"/>
     </row>
     <row r="60" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="4" t="s">
         <v>127</v>
       </c>
@@ -4442,7 +4442,7 @@
       <c r="F60" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G60" s="25"/>
+      <c r="G60" s="24"/>
       <c r="H60" s="1" t="s">
         <v>110</v>
       </c>
@@ -4450,7 +4450,7 @@
       <c r="J60" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K60" s="25"/>
+      <c r="K60" s="24"/>
       <c r="L60" s="1" t="s">
         <v>112</v>
       </c>
@@ -4458,62 +4458,62 @@
       <c r="N60" s="3"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29" t="s">
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="42" t="s">
         <v>129</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F61" s="1"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="19">
+      <c r="G61" s="24"/>
+      <c r="H61" s="22">
         <v>138.1</v>
       </c>
-      <c r="I61" s="19">
+      <c r="I61" s="22">
         <v>11</v>
       </c>
       <c r="J61" s="1">
         <v>11</v>
       </c>
-      <c r="K61" s="25"/>
-      <c r="L61" s="19">
+      <c r="K61" s="24"/>
+      <c r="L61" s="22">
         <v>145.1</v>
       </c>
-      <c r="M61" s="30">
+      <c r="M61" s="28">
         <v>6.7</v>
       </c>
       <c r="N61" s="3"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="36"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="44"/>
       <c r="E62" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F62" s="1"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="20"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="23"/>
       <c r="J62" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="30"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="28"/>
       <c r="N62" s="3"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="35" t="s">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="42" t="s">
         <v>133</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -4522,45 +4522,45 @@
       <c r="F63" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="30">
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="28">
         <v>107.1</v>
       </c>
       <c r="J63" s="1">
         <v>33.6</v>
       </c>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="30">
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="28">
         <v>106.5</v>
       </c>
       <c r="N63" s="3"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="36"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="44"/>
       <c r="E64" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F64" s="1"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="30"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="28"/>
       <c r="J64" s="1">
         <v>73.5</v>
       </c>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="30"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="28"/>
       <c r="N64" s="3"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="4" t="s">
         <v>135</v>
       </c>
@@ -4568,92 +4568,92 @@
         <v>136</v>
       </c>
       <c r="F65" s="1"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="20"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="23"/>
       <c r="I65" s="1">
         <v>20</v>
       </c>
       <c r="J65" s="1">
         <v>20</v>
       </c>
-      <c r="K65" s="25"/>
-      <c r="L65" s="20"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="23"/>
       <c r="M65" s="1">
         <v>31.9</v>
       </c>
       <c r="N65" s="3"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="23" t="s">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D66" s="21"/>
+      <c r="D66" s="26"/>
       <c r="E66" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G66" s="25"/>
-      <c r="H66" s="30">
+      <c r="G66" s="24"/>
+      <c r="H66" s="28">
         <v>14.9</v>
       </c>
-      <c r="I66" s="30"/>
+      <c r="I66" s="28"/>
       <c r="J66" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K66" s="25"/>
-      <c r="L66" s="19">
+      <c r="K66" s="24"/>
+      <c r="L66" s="22">
         <v>13.8</v>
       </c>
-      <c r="M66" s="19"/>
+      <c r="M66" s="22"/>
       <c r="N66" s="3"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="34"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="33"/>
       <c r="E67" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F67" s="1"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
       <c r="J67" s="2">
         <v>1.5</v>
       </c>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
       <c r="N67" s="3"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="34"/>
       <c r="E68" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F68" s="1"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
       <c r="J68" s="2">
         <v>13.4</v>
       </c>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
       <c r="N68" s="3"/>
     </row>
     <row r="69" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="29"/>
-      <c r="B69" s="48" t="s">
+      <c r="A69" s="19"/>
+      <c r="B69" s="29" t="s">
         <v>140</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -4664,7 +4664,7 @@
         <v>142</v>
       </c>
       <c r="F69" s="1"/>
-      <c r="G69" s="19">
+      <c r="G69" s="22">
         <v>64.8</v>
       </c>
       <c r="H69" s="1">
@@ -4674,7 +4674,7 @@
       <c r="J69" s="2">
         <v>3</v>
       </c>
-      <c r="K69" s="19"/>
+      <c r="K69" s="22"/>
       <c r="L69" s="1">
         <v>6</v>
       </c>
@@ -4682,9 +4682,9 @@
       <c r="N69" s="3"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A70" s="29"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="29" t="s">
+      <c r="A70" s="19"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="19" t="s">
         <v>143</v>
       </c>
       <c r="D70" s="4" t="s">
@@ -4694,8 +4694,8 @@
         <v>145</v>
       </c>
       <c r="F70" s="1"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="19">
+      <c r="G70" s="24"/>
+      <c r="H70" s="22">
         <v>9.5</v>
       </c>
       <c r="I70" s="1">
@@ -4704,8 +4704,8 @@
       <c r="J70" s="2">
         <v>3</v>
       </c>
-      <c r="K70" s="25"/>
-      <c r="L70" s="19">
+      <c r="K70" s="24"/>
+      <c r="L70" s="22">
         <v>8.5</v>
       </c>
       <c r="M70" s="1">
@@ -4714,9 +4714,9 @@
       <c r="N70" s="3"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A71" s="29"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="29"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="4" t="s">
         <v>146</v>
       </c>
@@ -4724,73 +4724,73 @@
         <v>147</v>
       </c>
       <c r="F71" s="1"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="20"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="23"/>
       <c r="I71" s="1">
         <v>6.5</v>
       </c>
       <c r="J71" s="1">
         <v>6</v>
       </c>
-      <c r="K71" s="25"/>
-      <c r="L71" s="20"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="23"/>
       <c r="M71" s="1">
         <v>5.4</v>
       </c>
       <c r="N71" s="3"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A72" s="29"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="23" t="s">
+      <c r="A72" s="19"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D72" s="33"/>
+      <c r="D72" s="25"/>
       <c r="E72" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G72" s="25"/>
-      <c r="H72" s="19">
+      <c r="G72" s="24"/>
+      <c r="H72" s="22">
         <v>17.5</v>
       </c>
-      <c r="I72" s="19"/>
+      <c r="I72" s="22"/>
       <c r="J72" s="2">
         <v>15.7</v>
       </c>
-      <c r="K72" s="25"/>
-      <c r="L72" s="19">
+      <c r="K72" s="24"/>
+      <c r="L72" s="22">
         <v>1.4</v>
       </c>
-      <c r="M72" s="19"/>
+      <c r="M72" s="22"/>
       <c r="N72" s="3"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A73" s="29"/>
-      <c r="B73" s="49"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="33"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="25"/>
       <c r="E73" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F73" s="1"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
       <c r="J73" s="2">
         <v>1.2</v>
       </c>
-      <c r="K73" s="25"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
       <c r="N73" s="3"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A74" s="29"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="29" t="s">
+      <c r="A74" s="19"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="19" t="s">
         <v>150</v>
       </c>
       <c r="D74" s="4" t="s">
@@ -4802,8 +4802,8 @@
       <c r="F74" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G74" s="25"/>
-      <c r="H74" s="19">
+      <c r="G74" s="24"/>
+      <c r="H74" s="22">
         <v>10.199999999999999</v>
       </c>
       <c r="I74" s="1">
@@ -4812,8 +4812,8 @@
       <c r="J74" s="2">
         <v>5</v>
       </c>
-      <c r="K74" s="25"/>
-      <c r="L74" s="19">
+      <c r="K74" s="24"/>
+      <c r="L74" s="22">
         <v>9</v>
       </c>
       <c r="M74" s="1">
@@ -4822,9 +4822,9 @@
       <c r="N74" s="3"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A75" s="29"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="29"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="19"/>
       <c r="D75" s="13" t="s">
         <v>153</v>
       </c>
@@ -4832,24 +4832,24 @@
         <v>154</v>
       </c>
       <c r="F75" s="1"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="20"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="23"/>
       <c r="I75" s="2">
         <v>4.2</v>
       </c>
       <c r="J75" s="2">
         <v>4.2</v>
       </c>
-      <c r="K75" s="25"/>
-      <c r="L75" s="20"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="23"/>
       <c r="M75" s="2">
         <v>5.0999999999999996</v>
       </c>
       <c r="N75" s="3"/>
     </row>
     <row r="76" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A76" s="29"/>
-      <c r="B76" s="49"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="4" t="s">
         <v>155</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>156</v>
       </c>
       <c r="F76" s="1"/>
-      <c r="G76" s="25"/>
+      <c r="G76" s="24"/>
       <c r="H76" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -4866,7 +4866,7 @@
       <c r="J76" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K76" s="25"/>
+      <c r="K76" s="24"/>
       <c r="L76" s="1">
         <v>2.5</v>
       </c>
@@ -4874,8 +4874,8 @@
       <c r="N76" s="3"/>
     </row>
     <row r="77" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A77" s="29"/>
-      <c r="B77" s="49"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="4" t="s">
         <v>157</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>158</v>
       </c>
       <c r="F77" s="1"/>
-      <c r="G77" s="25"/>
+      <c r="G77" s="24"/>
       <c r="H77" s="1">
         <v>1.9</v>
       </c>
@@ -4892,7 +4892,7 @@
       <c r="J77" s="2">
         <v>1.9</v>
       </c>
-      <c r="K77" s="25"/>
+      <c r="K77" s="24"/>
       <c r="L77" s="1">
         <v>0.2</v>
       </c>
@@ -4900,8 +4900,8 @@
       <c r="N77" s="3"/>
     </row>
     <row r="78" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A78" s="29"/>
-      <c r="B78" s="49"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="32"/>
       <c r="C78" s="4" t="s">
         <v>159</v>
       </c>
@@ -4912,7 +4912,7 @@
       <c r="F78" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G78" s="25"/>
+      <c r="G78" s="24"/>
       <c r="H78" s="1">
         <v>2</v>
       </c>
@@ -4920,15 +4920,15 @@
       <c r="J78" s="2">
         <v>2</v>
       </c>
-      <c r="K78" s="25"/>
+      <c r="K78" s="24"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="3"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A79" s="29"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="45" t="s">
+      <c r="A79" s="19"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="31" t="s">
         <v>161</v>
       </c>
       <c r="D79" s="15" t="s">
@@ -4938,8 +4938,8 @@
         <v>163</v>
       </c>
       <c r="F79" s="7"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="26">
+      <c r="G79" s="24"/>
+      <c r="H79" s="39">
         <v>9</v>
       </c>
       <c r="I79" s="7">
@@ -4948,8 +4948,8 @@
       <c r="J79" s="6">
         <v>3</v>
       </c>
-      <c r="K79" s="25"/>
-      <c r="L79" s="19">
+      <c r="K79" s="24"/>
+      <c r="L79" s="22">
         <v>4.0999999999999996</v>
       </c>
       <c r="M79" s="7">
@@ -4958,9 +4958,9 @@
       <c r="N79" s="3"/>
     </row>
     <row r="80" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A80" s="29"/>
-      <c r="B80" s="49"/>
-      <c r="C80" s="45"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="31"/>
       <c r="D80" s="4" t="s">
         <v>164</v>
       </c>
@@ -4970,23 +4970,23 @@
       <c r="F80" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="25"/>
-      <c r="H80" s="28"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="41"/>
       <c r="I80" s="1">
         <v>6</v>
       </c>
       <c r="J80" s="2">
         <v>6</v>
       </c>
-      <c r="K80" s="25"/>
-      <c r="L80" s="20"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="23"/>
       <c r="M80" s="1"/>
       <c r="N80" s="3"/>
     </row>
     <row r="81" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A81" s="29"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="35" t="s">
+      <c r="A81" s="19"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="42" t="s">
         <v>166</v>
       </c>
       <c r="D81" s="4" t="s">
@@ -4996,8 +4996,8 @@
         <v>168</v>
       </c>
       <c r="F81" s="1"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="19">
+      <c r="G81" s="24"/>
+      <c r="H81" s="22">
         <v>7.6</v>
       </c>
       <c r="I81" s="1">
@@ -5006,8 +5006,8 @@
       <c r="J81" s="2">
         <v>2.6</v>
       </c>
-      <c r="K81" s="25"/>
-      <c r="L81" s="19">
+      <c r="K81" s="24"/>
+      <c r="L81" s="22">
         <v>3.6</v>
       </c>
       <c r="M81" s="1">
@@ -5016,9 +5016,9 @@
       <c r="N81" s="3"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A82" s="29"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="37"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="43"/>
       <c r="D82" s="4" t="s">
         <v>169</v>
       </c>
@@ -5026,25 +5026,25 @@
         <v>170</v>
       </c>
       <c r="F82" s="1"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
       <c r="I82" s="1" t="s">
         <v>171</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K82" s="25"/>
-      <c r="L82" s="25"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
       <c r="M82" s="1" t="s">
         <v>172</v>
       </c>
       <c r="N82" s="3"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A83" s="29"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="36"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="44"/>
       <c r="D83" s="13" t="s">
         <v>173</v>
       </c>
@@ -5052,27 +5052,27 @@
         <v>174</v>
       </c>
       <c r="F83" s="1"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
       <c r="I83" s="2">
         <v>5</v>
       </c>
       <c r="J83" s="2">
         <v>5</v>
       </c>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
       <c r="M83" s="1">
         <v>1.5</v>
       </c>
       <c r="N83" s="3"/>
     </row>
     <row r="84" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="29"/>
-      <c r="B84" s="47" t="s">
+      <c r="A84" s="19"/>
+      <c r="B84" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="C84" s="37" t="s">
         <v>175</v>
       </c>
       <c r="D84" s="13" t="s">
@@ -5082,10 +5082,10 @@
         <v>177</v>
       </c>
       <c r="F84" s="1"/>
-      <c r="G84" s="19">
+      <c r="G84" s="22">
         <v>19</v>
       </c>
-      <c r="H84" s="26">
+      <c r="H84" s="39">
         <v>13.4</v>
       </c>
       <c r="I84" s="2">
@@ -5094,8 +5094,8 @@
       <c r="J84" s="2">
         <v>9.9</v>
       </c>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19">
+      <c r="K84" s="22"/>
+      <c r="L84" s="22">
         <v>6.1</v>
       </c>
       <c r="M84" s="2">
@@ -5104,9 +5104,9 @@
       <c r="N84" s="3"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A85" s="29"/>
-      <c r="B85" s="47"/>
-      <c r="C85" s="52"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="38"/>
       <c r="D85" s="16" t="s">
         <v>178</v>
       </c>
@@ -5114,112 +5114,112 @@
         <v>179</v>
       </c>
       <c r="F85" s="7"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="27"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="40"/>
       <c r="I85" s="6">
         <v>3.5</v>
       </c>
       <c r="J85" s="6">
         <v>3</v>
       </c>
-      <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
       <c r="M85" s="6">
         <v>3.1</v>
       </c>
       <c r="N85" s="3"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A86" s="29"/>
-      <c r="B86" s="47"/>
-      <c r="C86" s="48" t="s">
+      <c r="A86" s="19"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="D86" s="21"/>
+      <c r="D86" s="26"/>
       <c r="E86" s="2" t="s">
         <v>183</v>
       </c>
       <c r="F86" s="1"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="30">
+      <c r="G86" s="24"/>
+      <c r="H86" s="28">
         <v>5.5</v>
       </c>
-      <c r="I86" s="30"/>
+      <c r="I86" s="28"/>
       <c r="J86" s="2">
         <v>0.2</v>
       </c>
-      <c r="K86" s="25"/>
-      <c r="L86" s="30">
+      <c r="K86" s="24"/>
+      <c r="L86" s="28">
         <v>4</v>
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="3"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A87" s="29"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="34"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="33"/>
       <c r="E87" s="2" t="s">
         <v>184</v>
       </c>
       <c r="F87" s="1"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
       <c r="J87" s="2">
         <v>1</v>
       </c>
-      <c r="K87" s="25"/>
-      <c r="L87" s="30"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="28"/>
       <c r="M87" s="1"/>
       <c r="N87" s="3"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A88" s="29"/>
-      <c r="B88" s="47"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="34"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="33"/>
       <c r="E88" s="2" t="s">
         <v>185</v>
       </c>
       <c r="F88" s="1"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="30"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
       <c r="J88" s="2">
         <v>4</v>
       </c>
-      <c r="K88" s="25"/>
-      <c r="L88" s="30"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="28"/>
       <c r="M88" s="1"/>
       <c r="N88" s="3"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A89" s="29"/>
-      <c r="B89" s="47"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="22"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="34"/>
       <c r="E89" s="2" t="s">
         <v>182</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G89" s="25"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="30"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
       <c r="J89" s="2">
         <v>0.3</v>
       </c>
-      <c r="K89" s="25"/>
-      <c r="L89" s="30"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="28"/>
       <c r="M89" s="1"/>
       <c r="N89" s="3"/>
     </row>
     <row r="90" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A90" s="29"/>
-      <c r="B90" s="47"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="35"/>
       <c r="C90" s="12" t="s">
         <v>186</v>
       </c>
@@ -5230,7 +5230,7 @@
       <c r="F90" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G90" s="20"/>
+      <c r="G90" s="23"/>
       <c r="H90" s="1" t="s">
         <v>110</v>
       </c>
@@ -5238,7 +5238,7 @@
       <c r="J90" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K90" s="20"/>
+      <c r="K90" s="23"/>
       <c r="L90" s="1" t="s">
         <v>112</v>
       </c>
@@ -5246,34 +5246,34 @@
       <c r="N90" s="3"/>
     </row>
     <row r="91" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="29"/>
-      <c r="B91" s="48" t="s">
+      <c r="A91" s="19"/>
+      <c r="B91" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="C91" s="48" t="s">
+      <c r="C91" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="D91" s="23" t="s">
+      <c r="D91" s="20" t="s">
         <v>189</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F91" s="1"/>
-      <c r="G91" s="19">
+      <c r="G91" s="22">
         <v>96.7</v>
       </c>
-      <c r="H91" s="19">
+      <c r="H91" s="22">
         <v>61.3</v>
       </c>
-      <c r="I91" s="32">
+      <c r="I91" s="36">
         <v>40.4</v>
       </c>
       <c r="J91" s="2">
         <v>16</v>
       </c>
-      <c r="K91" s="21"/>
-      <c r="L91" s="19">
+      <c r="K91" s="26"/>
+      <c r="L91" s="22">
         <v>28.8</v>
       </c>
       <c r="M91" s="1">
@@ -5282,29 +5282,29 @@
       <c r="N91" s="3"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A92" s="29"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="24"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="21"/>
       <c r="E92" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F92" s="1"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="32"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="36"/>
       <c r="J92" s="2">
         <v>12.1</v>
       </c>
-      <c r="K92" s="34"/>
-      <c r="L92" s="25"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="24"/>
       <c r="M92" s="1"/>
       <c r="N92" s="3"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A93" s="29"/>
-      <c r="B93" s="49"/>
-      <c r="C93" s="49"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
       <c r="D93" s="4" t="s">
         <v>192</v>
       </c>
@@ -5314,25 +5314,25 @@
       <c r="F93" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
       <c r="I93" s="1">
         <v>19.5</v>
       </c>
       <c r="J93" s="1">
         <v>19.5</v>
       </c>
-      <c r="K93" s="34"/>
-      <c r="L93" s="25"/>
+      <c r="K93" s="33"/>
+      <c r="L93" s="24"/>
       <c r="M93" s="1">
         <v>2.4</v>
       </c>
       <c r="N93" s="3"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A94" s="29"/>
-      <c r="B94" s="49"/>
-      <c r="C94" s="49"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
       <c r="D94" s="4" t="s">
         <v>194</v>
       </c>
@@ -5340,46 +5340,46 @@
         <v>195</v>
       </c>
       <c r="F94" s="1"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
       <c r="I94" s="1">
         <v>1.2</v>
       </c>
       <c r="J94" s="1">
         <v>1.2</v>
       </c>
-      <c r="K94" s="34"/>
-      <c r="L94" s="25"/>
+      <c r="K94" s="33"/>
+      <c r="L94" s="24"/>
       <c r="M94" s="1">
         <v>0.4</v>
       </c>
       <c r="N94" s="3"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A95" s="29"/>
-      <c r="B95" s="49"/>
-      <c r="C95" s="49"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
       <c r="D95" s="8" t="s">
         <v>196</v>
       </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="25"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
       <c r="I95" s="7">
         <v>0.1</v>
       </c>
       <c r="J95" s="7"/>
-      <c r="K95" s="34"/>
-      <c r="L95" s="25"/>
+      <c r="K95" s="33"/>
+      <c r="L95" s="24"/>
       <c r="M95" s="6">
         <v>0.1</v>
       </c>
       <c r="N95" s="3"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A96" s="29"/>
-      <c r="B96" s="50"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="30"/>
       <c r="C96" s="12" t="s">
         <v>197</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>198</v>
       </c>
       <c r="F96" s="1"/>
-      <c r="G96" s="20"/>
+      <c r="G96" s="23"/>
       <c r="H96" s="1">
         <v>35.4</v>
       </c>
@@ -5396,7 +5396,7 @@
       <c r="J96" s="1">
         <v>35.4</v>
       </c>
-      <c r="K96" s="22"/>
+      <c r="K96" s="34"/>
       <c r="L96" s="1">
         <v>35.4</v>
       </c>
@@ -5404,13 +5404,13 @@
       <c r="N96" s="3"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A97" s="29" t="s">
+      <c r="A97" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="C97" s="29" t="s">
+      <c r="C97" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -5420,10 +5420,10 @@
         <v>202</v>
       </c>
       <c r="F97" s="1"/>
-      <c r="G97" s="19">
+      <c r="G97" s="22">
         <v>7.6</v>
       </c>
-      <c r="H97" s="19">
+      <c r="H97" s="22">
         <v>7</v>
       </c>
       <c r="I97" s="1">
@@ -5432,8 +5432,8 @@
       <c r="J97" s="1">
         <v>7</v>
       </c>
-      <c r="K97" s="19"/>
-      <c r="L97" s="19">
+      <c r="K97" s="22"/>
+      <c r="L97" s="22">
         <v>6.3</v>
       </c>
       <c r="M97" s="1">
@@ -5442,9 +5442,9 @@
       <c r="N97" s="3"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A98" s="29"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
       <c r="D98" s="13" t="s">
         <v>204</v>
       </c>
@@ -5454,25 +5454,25 @@
       <c r="F98" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G98" s="25"/>
-      <c r="H98" s="20"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="23"/>
       <c r="I98" s="2">
         <v>7</v>
       </c>
       <c r="J98" s="2">
         <v>7</v>
       </c>
-      <c r="K98" s="25"/>
-      <c r="L98" s="20"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="23"/>
       <c r="M98" s="1">
         <v>6.3</v>
       </c>
       <c r="N98" s="3"/>
     </row>
     <row r="99" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A99" s="29"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29" t="s">
+      <c r="A99" s="19"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19" t="s">
         <v>205</v>
       </c>
       <c r="D99" s="13" t="s">
@@ -5484,8 +5484,8 @@
       <c r="F99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G99" s="25"/>
-      <c r="H99" s="19">
+      <c r="G99" s="24"/>
+      <c r="H99" s="22">
         <v>0.4</v>
       </c>
       <c r="I99" s="2">
@@ -5494,17 +5494,17 @@
       <c r="J99" s="1">
         <v>0.2</v>
       </c>
-      <c r="K99" s="25"/>
-      <c r="L99" s="19">
+      <c r="K99" s="24"/>
+      <c r="L99" s="22">
         <v>0.2</v>
       </c>
       <c r="M99" s="1"/>
       <c r="N99" s="3"/>
     </row>
     <row r="100" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A100" s="29"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
       <c r="D100" s="4" t="s">
         <v>208</v>
       </c>
@@ -5512,25 +5512,25 @@
         <v>209</v>
       </c>
       <c r="F100" s="1"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="20"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="23"/>
       <c r="I100" s="2">
         <v>0.2</v>
       </c>
       <c r="J100" s="1">
         <v>0.1</v>
       </c>
-      <c r="K100" s="25"/>
-      <c r="L100" s="20"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="23"/>
       <c r="M100" s="2">
         <v>0.2</v>
       </c>
       <c r="N100" s="3"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A101" s="29"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="23" t="s">
+      <c r="A101" s="19"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="20" t="s">
         <v>210</v>
       </c>
       <c r="D101" s="13" t="s">
@@ -5540,8 +5540,8 @@
         <v>212</v>
       </c>
       <c r="F101" s="1"/>
-      <c r="G101" s="25"/>
-      <c r="H101" s="19">
+      <c r="G101" s="24"/>
+      <c r="H101" s="22">
         <v>0.5</v>
       </c>
       <c r="I101" s="2">
@@ -5550,8 +5550,8 @@
       <c r="J101" s="2">
         <v>0.5</v>
       </c>
-      <c r="K101" s="25"/>
-      <c r="L101" s="30">
+      <c r="K101" s="24"/>
+      <c r="L101" s="28">
         <v>0.5</v>
       </c>
       <c r="M101" s="2">
@@ -5560,10 +5560,10 @@
       <c r="N101" s="3"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A102" s="29"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="45" t="s">
+      <c r="A102" s="19"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="31" t="s">
         <v>213</v>
       </c>
       <c r="E102" s="2" t="s">
@@ -5572,64 +5572,64 @@
       <c r="F102" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G102" s="25"/>
-      <c r="H102" s="25"/>
-      <c r="I102" s="30" t="s">
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="28" t="s">
         <v>214</v>
       </c>
       <c r="J102" s="2">
         <v>1.2</v>
       </c>
-      <c r="K102" s="25"/>
-      <c r="L102" s="30"/>
-      <c r="M102" s="30" t="s">
+      <c r="K102" s="24"/>
+      <c r="L102" s="28"/>
+      <c r="M102" s="28" t="s">
         <v>215</v>
       </c>
       <c r="N102" s="3"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A103" s="29"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="45"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="31"/>
       <c r="E103" s="1" t="s">
         <v>217</v>
       </c>
       <c r="F103" s="1"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
-      <c r="I103" s="30"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="28"/>
       <c r="J103" s="2">
         <v>0.7</v>
       </c>
-      <c r="K103" s="25"/>
-      <c r="L103" s="30"/>
-      <c r="M103" s="30"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="28"/>
+      <c r="M103" s="28"/>
       <c r="N103" s="3"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A104" s="29"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="45"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="31"/>
       <c r="E104" s="1" t="s">
         <v>218</v>
       </c>
       <c r="F104" s="1"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="30"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="28"/>
       <c r="J104" s="2">
         <v>0.2</v>
       </c>
-      <c r="K104" s="25"/>
-      <c r="L104" s="30"/>
-      <c r="M104" s="30"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="28"/>
+      <c r="M104" s="28"/>
       <c r="N104" s="3"/>
     </row>
     <row r="105" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A105" s="29"/>
-      <c r="B105" s="29"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
       <c r="C105" s="4" t="s">
         <v>219</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>220</v>
       </c>
       <c r="F105" s="1"/>
-      <c r="G105" s="20"/>
+      <c r="G105" s="23"/>
       <c r="H105" s="1">
         <v>0.2</v>
       </c>
@@ -5646,7 +5646,7 @@
       <c r="J105" s="2">
         <v>0.2</v>
       </c>
-      <c r="K105" s="20"/>
+      <c r="K105" s="23"/>
       <c r="L105" s="1">
         <v>0.2</v>
       </c>
@@ -5654,106 +5654,106 @@
       <c r="N105" s="3"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A106" s="29"/>
-      <c r="B106" s="23" t="s">
+      <c r="A106" s="19"/>
+      <c r="B106" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C106" s="23" t="s">
+      <c r="C106" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="D106" s="33"/>
+      <c r="D106" s="25"/>
       <c r="E106" s="2" t="s">
         <v>183</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G106" s="19">
+      <c r="G106" s="22">
         <v>5.5</v>
       </c>
-      <c r="H106" s="30">
+      <c r="H106" s="28">
         <v>5.5</v>
       </c>
-      <c r="I106" s="30"/>
+      <c r="I106" s="28"/>
       <c r="J106" s="2">
         <v>0.2</v>
       </c>
-      <c r="K106" s="19"/>
-      <c r="L106" s="30">
+      <c r="K106" s="22"/>
+      <c r="L106" s="28">
         <v>4</v>
       </c>
-      <c r="M106" s="30"/>
+      <c r="M106" s="28"/>
       <c r="N106" s="3"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A107" s="29"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="33"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="25"/>
       <c r="E107" s="2" t="s">
         <v>184</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G107" s="25"/>
-      <c r="H107" s="30"/>
-      <c r="I107" s="30"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
       <c r="J107" s="2">
         <v>1</v>
       </c>
-      <c r="K107" s="25"/>
-      <c r="L107" s="30"/>
-      <c r="M107" s="30"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="28"/>
+      <c r="M107" s="28"/>
       <c r="N107" s="3"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A108" s="29"/>
-      <c r="B108" s="31"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="33"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="25"/>
       <c r="E108" s="2" t="s">
         <v>185</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G108" s="25"/>
-      <c r="H108" s="30"/>
-      <c r="I108" s="30"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="28"/>
       <c r="J108" s="2">
         <v>4</v>
       </c>
-      <c r="K108" s="25"/>
-      <c r="L108" s="30"/>
-      <c r="M108" s="30"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="28"/>
+      <c r="M108" s="28"/>
       <c r="N108" s="3"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A109" s="29"/>
-      <c r="B109" s="31"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="33"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="25"/>
       <c r="E109" s="2" t="s">
         <v>182</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G109" s="25"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="28"/>
       <c r="J109" s="2">
         <v>0.3</v>
       </c>
-      <c r="K109" s="25"/>
-      <c r="L109" s="30"/>
-      <c r="M109" s="30"/>
+      <c r="K109" s="24"/>
+      <c r="L109" s="28"/>
+      <c r="M109" s="28"/>
       <c r="N109" s="3"/>
     </row>
     <row r="110" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A110" s="29"/>
-      <c r="B110" s="24"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="4" t="s">
         <v>223</v>
       </c>
@@ -5764,7 +5764,7 @@
       <c r="F110" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G110" s="20"/>
+      <c r="G110" s="23"/>
       <c r="H110" s="1" t="s">
         <v>110</v>
       </c>
@@ -5772,7 +5772,7 @@
       <c r="J110" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K110" s="20"/>
+      <c r="K110" s="23"/>
       <c r="L110" s="1" t="s">
         <v>112</v>
       </c>
@@ -5780,11 +5780,11 @@
       <c r="N110" s="3"/>
     </row>
     <row r="111" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A111" s="29"/>
-      <c r="B111" s="23" t="s">
+      <c r="A111" s="19"/>
+      <c r="B111" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C111" s="29" t="s">
+      <c r="C111" s="19" t="s">
         <v>225</v>
       </c>
       <c r="D111" s="15" t="s">
@@ -5794,10 +5794,10 @@
         <v>227</v>
       </c>
       <c r="F111" s="7"/>
-      <c r="G111" s="19">
+      <c r="G111" s="22">
         <v>302.5</v>
       </c>
-      <c r="H111" s="19">
+      <c r="H111" s="22">
         <v>291.3</v>
       </c>
       <c r="I111" s="7">
@@ -5806,8 +5806,8 @@
       <c r="J111" s="6">
         <v>68.099999999999994</v>
       </c>
-      <c r="K111" s="19"/>
-      <c r="L111" s="19">
+      <c r="K111" s="22"/>
+      <c r="L111" s="22">
         <v>227.9</v>
       </c>
       <c r="M111" s="7">
@@ -5816,144 +5816,144 @@
       <c r="N111" s="9"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A112" s="29"/>
-      <c r="B112" s="31"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="48" t="s">
+      <c r="A112" s="19"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="29" t="s">
         <v>228</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>229</v>
       </c>
       <c r="F112" s="1"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="19">
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
+      <c r="I112" s="22">
         <v>219</v>
       </c>
       <c r="J112" s="1">
         <v>148.5</v>
       </c>
-      <c r="K112" s="25"/>
-      <c r="L112" s="25"/>
-      <c r="M112" s="19">
+      <c r="K112" s="24"/>
+      <c r="L112" s="24"/>
+      <c r="M112" s="22">
         <v>142.80000000000001</v>
       </c>
       <c r="N112" s="9"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A113" s="29"/>
-      <c r="B113" s="31"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="50"/>
+      <c r="A113" s="19"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="30"/>
       <c r="E113" s="2" t="s">
         <v>230</v>
       </c>
       <c r="F113" s="1"/>
-      <c r="G113" s="25"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="20"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="23"/>
       <c r="J113" s="2">
         <v>70.5</v>
       </c>
-      <c r="K113" s="25"/>
-      <c r="L113" s="25"/>
-      <c r="M113" s="25"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="24"/>
       <c r="N113" s="9"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A114" s="29"/>
-      <c r="B114" s="31"/>
-      <c r="C114" s="29" t="s">
+      <c r="A114" s="19"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="D114" s="33"/>
+      <c r="D114" s="25"/>
       <c r="E114" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F114" s="1"/>
-      <c r="G114" s="25"/>
-      <c r="H114" s="19">
+      <c r="G114" s="24"/>
+      <c r="H114" s="22">
         <v>11.2</v>
       </c>
-      <c r="I114" s="19"/>
+      <c r="I114" s="22"/>
       <c r="J114" s="2">
         <v>0.2</v>
       </c>
-      <c r="K114" s="25"/>
-      <c r="L114" s="19">
+      <c r="K114" s="24"/>
+      <c r="L114" s="22">
         <v>2.8</v>
       </c>
       <c r="M114" s="10"/>
       <c r="N114" s="9"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A115" s="29"/>
-      <c r="B115" s="31"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="33"/>
+      <c r="A115" s="19"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="25"/>
       <c r="E115" s="2" t="s">
         <v>233</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G115" s="25"/>
-      <c r="H115" s="25"/>
-      <c r="I115" s="25"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
       <c r="J115" s="2">
         <v>1</v>
       </c>
-      <c r="K115" s="25"/>
-      <c r="L115" s="25"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="24"/>
       <c r="M115" s="10"/>
       <c r="N115" s="9"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A116" s="29"/>
-      <c r="B116" s="31"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="33"/>
+      <c r="A116" s="19"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="25"/>
       <c r="E116" s="2" t="s">
         <v>234</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G116" s="25"/>
-      <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="24"/>
       <c r="J116" s="2">
         <v>3.2</v>
       </c>
-      <c r="K116" s="25"/>
-      <c r="L116" s="25"/>
+      <c r="K116" s="24"/>
+      <c r="L116" s="24"/>
       <c r="M116" s="10"/>
       <c r="N116" s="9"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A117" s="29"/>
-      <c r="B117" s="31"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="21"/>
+      <c r="A117" s="19"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="26"/>
       <c r="E117" s="7" t="s">
         <v>235</v>
       </c>
       <c r="F117" s="7"/>
-      <c r="G117" s="25"/>
-      <c r="H117" s="25"/>
-      <c r="I117" s="25"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
       <c r="J117" s="6">
         <v>6.8</v>
       </c>
-      <c r="K117" s="25"/>
-      <c r="L117" s="25"/>
+      <c r="K117" s="24"/>
+      <c r="L117" s="24"/>
       <c r="M117" s="11"/>
       <c r="N117" s="9"/>
     </row>
     <row r="118" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A118" s="29"/>
-      <c r="B118" s="31"/>
+      <c r="A118" s="19"/>
+      <c r="B118" s="27"/>
       <c r="C118" s="8" t="s">
         <v>236</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>237</v>
       </c>
       <c r="F118" s="7"/>
-      <c r="G118" s="25"/>
+      <c r="G118" s="24"/>
       <c r="H118" s="7">
         <v>11.2</v>
       </c>
@@ -5970,7 +5970,7 @@
       <c r="J118" s="7">
         <v>11.2</v>
       </c>
-      <c r="K118" s="25"/>
+      <c r="K118" s="24"/>
       <c r="L118" s="7">
         <v>8.4</v>
       </c>
@@ -5978,17 +5978,17 @@
       <c r="N118" s="9"/>
     </row>
     <row r="119" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A119" s="29"/>
-      <c r="B119" s="24"/>
+      <c r="A119" s="19"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="7" t="s">
-        <v>239</v>
+        <v>405</v>
       </c>
       <c r="F119" s="7"/>
-      <c r="G119" s="25"/>
+      <c r="G119" s="24"/>
       <c r="H119" s="7">
         <v>10.1</v>
       </c>
@@ -5996,7 +5996,7 @@
       <c r="J119" s="7">
         <v>10.1</v>
       </c>
-      <c r="K119" s="25"/>
+      <c r="K119" s="24"/>
       <c r="L119" s="7">
         <v>0.3</v>
       </c>
@@ -6004,39 +6004,39 @@
       <c r="N119" s="9"/>
     </row>
     <row r="120" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="29"/>
-      <c r="B120" s="29" t="s">
+      <c r="A120" s="19"/>
+      <c r="B120" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C120" s="20" t="s">
         <v>240</v>
-      </c>
-      <c r="C120" s="23" t="s">
-        <v>241</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F120" s="1"/>
-      <c r="G120" s="19">
+      <c r="G120" s="22">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H120" s="19">
+      <c r="H120" s="22">
         <v>4.5999999999999996</v>
       </c>
       <c r="I120" s="1"/>
       <c r="J120" s="1">
         <v>0.6</v>
       </c>
-      <c r="K120" s="19"/>
-      <c r="L120" s="19">
+      <c r="K120" s="22"/>
+      <c r="L120" s="22">
         <v>4.3</v>
       </c>
       <c r="M120" s="1"/>
       <c r="N120" s="9"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A121" s="29"/>
-      <c r="B121" s="29"/>
-      <c r="C121" s="24"/>
+      <c r="A121" s="19"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="21"/>
       <c r="D121" s="4"/>
       <c r="E121" s="2" t="s">
         <v>190</v>
@@ -6044,30 +6044,30 @@
       <c r="F121" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G121" s="20"/>
-      <c r="H121" s="20"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
       <c r="I121" s="1"/>
       <c r="J121" s="2">
         <v>16</v>
       </c>
-      <c r="K121" s="20"/>
-      <c r="L121" s="20"/>
+      <c r="K121" s="23"/>
+      <c r="L121" s="23"/>
       <c r="M121" s="1"/>
       <c r="N121" s="9"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A122" s="29"/>
+      <c r="A122" s="19"/>
       <c r="B122" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="D122" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="E122" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="5">
@@ -6092,107 +6092,107 @@
       <c r="N122" s="9"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A123" s="29" t="s">
+      <c r="A123" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="B123" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="B123" s="23" t="s">
+      <c r="C123" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="C123" s="29" t="s">
+      <c r="D123" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="D123" s="23" t="s">
+      <c r="E123" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="F123" s="1"/>
-      <c r="G123" s="19">
+      <c r="G123" s="22">
         <v>16.899999999999999</v>
       </c>
-      <c r="H123" s="19">
+      <c r="H123" s="22">
         <v>16.3</v>
       </c>
-      <c r="I123" s="19">
+      <c r="I123" s="22">
         <v>14.9</v>
       </c>
       <c r="J123" s="2">
         <v>14.3</v>
       </c>
-      <c r="K123" s="19"/>
-      <c r="L123" s="19">
+      <c r="K123" s="22"/>
+      <c r="L123" s="22">
         <v>13</v>
       </c>
-      <c r="M123" s="19">
+      <c r="M123" s="22">
         <v>11.2</v>
       </c>
       <c r="N123" s="9"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A124" s="29"/>
-      <c r="B124" s="31"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="24"/>
+      <c r="A124" s="19"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="21"/>
       <c r="E124" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F124" s="1"/>
-      <c r="G124" s="25"/>
-      <c r="H124" s="25"/>
-      <c r="I124" s="20"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="23"/>
       <c r="J124" s="2">
         <v>0.7</v>
       </c>
-      <c r="K124" s="25"/>
-      <c r="L124" s="25"/>
-      <c r="M124" s="20"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
+      <c r="M124" s="23"/>
       <c r="N124" s="9"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A125" s="29"/>
-      <c r="B125" s="31"/>
-      <c r="C125" s="29"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="19"/>
       <c r="D125" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="F125" s="1"/>
-      <c r="G125" s="25"/>
-      <c r="H125" s="20"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="23"/>
       <c r="I125" s="1">
         <v>1.4</v>
       </c>
       <c r="J125" s="1">
         <v>1</v>
       </c>
-      <c r="K125" s="25"/>
-      <c r="L125" s="20"/>
+      <c r="K125" s="24"/>
+      <c r="L125" s="23"/>
       <c r="M125" s="1">
         <v>1.8</v>
       </c>
       <c r="N125" s="9"/>
     </row>
     <row r="126" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A126" s="29"/>
-      <c r="B126" s="31"/>
-      <c r="C126" s="23" t="s">
+      <c r="A126" s="19"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G126" s="24"/>
+      <c r="H126" s="22" t="s">
         <v>255</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G126" s="25"/>
-      <c r="H126" s="19" t="s">
-        <v>256</v>
       </c>
       <c r="I126" s="1">
         <v>0.2</v>
@@ -6200,48 +6200,48 @@
       <c r="J126" s="2">
         <v>0.2</v>
       </c>
-      <c r="K126" s="25"/>
-      <c r="L126" s="38">
+      <c r="K126" s="24"/>
+      <c r="L126" s="51">
         <v>3463.5</v>
       </c>
       <c r="M126" s="1"/>
       <c r="N126" s="9"/>
     </row>
     <row r="127" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A127" s="29"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="24"/>
+      <c r="A127" s="19"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="21"/>
       <c r="D127" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-      <c r="G127" s="25"/>
-      <c r="H127" s="20"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="23"/>
       <c r="I127" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J127" s="1"/>
-      <c r="K127" s="25"/>
-      <c r="L127" s="39"/>
+      <c r="K127" s="24"/>
+      <c r="L127" s="52"/>
       <c r="M127" s="1"/>
       <c r="N127" s="9"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A128" s="29"/>
-      <c r="B128" s="31"/>
-      <c r="C128" s="29" t="s">
+      <c r="A128" s="19"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D128" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="D128" s="13" t="s">
+      <c r="E128" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="F128" s="1"/>
-      <c r="G128" s="25"/>
-      <c r="H128" s="19">
+      <c r="G128" s="24"/>
+      <c r="H128" s="22">
         <v>0.4</v>
       </c>
       <c r="I128" s="2">
@@ -6250,8 +6250,8 @@
       <c r="J128" s="2">
         <v>0.2</v>
       </c>
-      <c r="K128" s="25"/>
-      <c r="L128" s="19">
+      <c r="K128" s="24"/>
+      <c r="L128" s="22">
         <v>4.7</v>
       </c>
       <c r="M128" s="1">
@@ -6260,522 +6260,522 @@
       <c r="N128" s="9"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A129" s="29"/>
-      <c r="B129" s="24"/>
-      <c r="C129" s="29"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="21"/>
+      <c r="C129" s="19"/>
       <c r="D129" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="F129" s="1"/>
-      <c r="G129" s="20"/>
-      <c r="H129" s="20"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="23"/>
       <c r="I129" s="2">
         <v>0.2</v>
       </c>
       <c r="J129" s="1">
         <v>0.2</v>
       </c>
-      <c r="K129" s="20"/>
-      <c r="L129" s="20"/>
+      <c r="K129" s="23"/>
+      <c r="L129" s="23"/>
       <c r="M129" s="1">
         <v>2.9</v>
       </c>
       <c r="N129" s="9"/>
     </row>
     <row r="130" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="29"/>
-      <c r="B130" s="29" t="s">
+      <c r="A130" s="19"/>
+      <c r="B130" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C130" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="C130" s="29" t="s">
+      <c r="D130" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="D130" s="35" t="s">
+      <c r="E130" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="F130" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G130" s="19">
+        <v>257</v>
+      </c>
+      <c r="G130" s="22">
         <v>114.1</v>
       </c>
-      <c r="H130" s="19">
+      <c r="H130" s="22">
         <v>69.5</v>
       </c>
-      <c r="I130" s="32">
+      <c r="I130" s="36">
         <v>66.099999999999994</v>
       </c>
       <c r="J130" s="2">
         <v>0.7</v>
       </c>
-      <c r="K130" s="19"/>
-      <c r="L130" s="19">
+      <c r="K130" s="22"/>
+      <c r="L130" s="22">
         <v>64.7</v>
       </c>
-      <c r="M130" s="32">
+      <c r="M130" s="36">
         <v>62.7</v>
       </c>
       <c r="N130" s="9"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A131" s="29"/>
-      <c r="B131" s="29"/>
-      <c r="C131" s="29"/>
-      <c r="D131" s="37"/>
+      <c r="A131" s="19"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="43"/>
       <c r="E131" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G131" s="25"/>
-      <c r="H131" s="25"/>
-      <c r="I131" s="32"/>
+        <v>257</v>
+      </c>
+      <c r="G131" s="24"/>
+      <c r="H131" s="24"/>
+      <c r="I131" s="36"/>
       <c r="J131" s="2">
         <v>0.1</v>
       </c>
-      <c r="K131" s="25"/>
-      <c r="L131" s="25"/>
-      <c r="M131" s="32"/>
+      <c r="K131" s="24"/>
+      <c r="L131" s="24"/>
+      <c r="M131" s="36"/>
       <c r="N131" s="9"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A132" s="29"/>
-      <c r="B132" s="29"/>
-      <c r="C132" s="29"/>
-      <c r="D132" s="37"/>
+      <c r="A132" s="19"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="43"/>
       <c r="E132" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G132" s="25"/>
-      <c r="H132" s="25"/>
-      <c r="I132" s="32"/>
+        <v>257</v>
+      </c>
+      <c r="G132" s="24"/>
+      <c r="H132" s="24"/>
+      <c r="I132" s="36"/>
       <c r="J132" s="2">
         <v>0.8</v>
       </c>
-      <c r="K132" s="25"/>
-      <c r="L132" s="25"/>
-      <c r="M132" s="32"/>
+      <c r="K132" s="24"/>
+      <c r="L132" s="24"/>
+      <c r="M132" s="36"/>
       <c r="N132" s="9"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A133" s="29"/>
-      <c r="B133" s="29"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="37"/>
+      <c r="A133" s="19"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="43"/>
       <c r="E133" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F133" s="1"/>
-      <c r="G133" s="25"/>
-      <c r="H133" s="25"/>
-      <c r="I133" s="32"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="24"/>
+      <c r="I133" s="36"/>
       <c r="J133" s="2">
         <v>49</v>
       </c>
-      <c r="K133" s="25"/>
-      <c r="L133" s="25"/>
-      <c r="M133" s="32"/>
+      <c r="K133" s="24"/>
+      <c r="L133" s="24"/>
+      <c r="M133" s="36"/>
       <c r="N133" s="9"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A134" s="29"/>
-      <c r="B134" s="29"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="36"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="44"/>
       <c r="E134" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F134" s="1"/>
-      <c r="G134" s="25"/>
-      <c r="H134" s="25"/>
-      <c r="I134" s="32"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24"/>
+      <c r="I134" s="36"/>
       <c r="J134" s="2">
         <v>0.9</v>
       </c>
-      <c r="K134" s="25"/>
-      <c r="L134" s="25"/>
-      <c r="M134" s="32"/>
+      <c r="K134" s="24"/>
+      <c r="L134" s="24"/>
+      <c r="M134" s="36"/>
       <c r="N134" s="9"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A135" s="29"/>
-      <c r="B135" s="29"/>
-      <c r="C135" s="29"/>
-      <c r="D135" s="35" t="s">
-        <v>276</v>
+      <c r="A135" s="19"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="42" t="s">
+        <v>275</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F135" s="1"/>
-      <c r="G135" s="25"/>
-      <c r="H135" s="25"/>
-      <c r="I135" s="32">
+      <c r="G135" s="24"/>
+      <c r="H135" s="24"/>
+      <c r="I135" s="36">
         <v>3.4</v>
       </c>
       <c r="J135" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K135" s="25"/>
-      <c r="L135" s="25"/>
-      <c r="M135" s="30">
+      <c r="K135" s="24"/>
+      <c r="L135" s="24"/>
+      <c r="M135" s="28">
         <v>2</v>
       </c>
       <c r="N135" s="9"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A136" s="29"/>
-      <c r="B136" s="29"/>
-      <c r="C136" s="29"/>
-      <c r="D136" s="36"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="44"/>
       <c r="E136" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G136" s="25"/>
-      <c r="H136" s="20"/>
-      <c r="I136" s="32"/>
+        <v>257</v>
+      </c>
+      <c r="G136" s="24"/>
+      <c r="H136" s="23"/>
+      <c r="I136" s="36"/>
       <c r="J136" s="2">
         <v>0.3</v>
       </c>
-      <c r="K136" s="25"/>
-      <c r="L136" s="20"/>
-      <c r="M136" s="30"/>
+      <c r="K136" s="24"/>
+      <c r="L136" s="23"/>
+      <c r="M136" s="28"/>
       <c r="N136" s="9"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A137" s="29"/>
-      <c r="B137" s="29"/>
-      <c r="C137" s="29" t="s">
+      <c r="A137" s="19"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D137" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="D137" s="35" t="s">
-        <v>282</v>
-      </c>
       <c r="E137" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F137" s="1"/>
-      <c r="G137" s="25"/>
-      <c r="H137" s="30">
+      <c r="G137" s="24"/>
+      <c r="H137" s="28">
         <v>63.8</v>
       </c>
-      <c r="I137" s="19">
+      <c r="I137" s="22">
         <v>56.4</v>
       </c>
       <c r="J137" s="2">
         <v>49</v>
       </c>
-      <c r="K137" s="25"/>
-      <c r="L137" s="30">
+      <c r="K137" s="24"/>
+      <c r="L137" s="28">
         <v>61</v>
       </c>
-      <c r="M137" s="19">
+      <c r="M137" s="22">
         <v>53.9</v>
       </c>
       <c r="N137" s="9"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A138" s="29"/>
-      <c r="B138" s="29"/>
-      <c r="C138" s="29"/>
-      <c r="D138" s="37"/>
+      <c r="A138" s="19"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="43"/>
       <c r="E138" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F138" s="1"/>
-      <c r="G138" s="25"/>
-      <c r="H138" s="30"/>
-      <c r="I138" s="25"/>
+      <c r="G138" s="24"/>
+      <c r="H138" s="28"/>
+      <c r="I138" s="24"/>
       <c r="J138" s="2">
         <v>2.6</v>
       </c>
-      <c r="K138" s="25"/>
-      <c r="L138" s="30"/>
-      <c r="M138" s="25"/>
+      <c r="K138" s="24"/>
+      <c r="L138" s="28"/>
+      <c r="M138" s="24"/>
       <c r="N138" s="9"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A139" s="29"/>
-      <c r="B139" s="29"/>
-      <c r="C139" s="29"/>
-      <c r="D139" s="37"/>
+      <c r="A139" s="19"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="43"/>
       <c r="E139" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G139" s="25"/>
-      <c r="H139" s="30"/>
-      <c r="I139" s="25"/>
+        <v>257</v>
+      </c>
+      <c r="G139" s="24"/>
+      <c r="H139" s="28"/>
+      <c r="I139" s="24"/>
       <c r="J139" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K139" s="25"/>
-      <c r="L139" s="30"/>
-      <c r="M139" s="25"/>
+      <c r="K139" s="24"/>
+      <c r="L139" s="28"/>
+      <c r="M139" s="24"/>
       <c r="N139" s="9"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A140" s="29"/>
-      <c r="B140" s="29"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="37"/>
+      <c r="A140" s="19"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="43"/>
       <c r="E140" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F140" s="1"/>
-      <c r="G140" s="25"/>
-      <c r="H140" s="30"/>
-      <c r="I140" s="25"/>
+      <c r="G140" s="24"/>
+      <c r="H140" s="28"/>
+      <c r="I140" s="24"/>
       <c r="J140" s="2">
         <v>0.3</v>
       </c>
-      <c r="K140" s="25"/>
-      <c r="L140" s="30"/>
-      <c r="M140" s="25"/>
+      <c r="K140" s="24"/>
+      <c r="L140" s="28"/>
+      <c r="M140" s="24"/>
       <c r="N140" s="9"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A141" s="29"/>
-      <c r="B141" s="29"/>
-      <c r="C141" s="29"/>
-      <c r="D141" s="36"/>
+      <c r="A141" s="19"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="44"/>
       <c r="E141" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F141" s="1"/>
-      <c r="G141" s="25"/>
-      <c r="H141" s="30"/>
-      <c r="I141" s="20"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="28"/>
+      <c r="I141" s="23"/>
       <c r="J141" s="2">
         <v>0.9</v>
       </c>
-      <c r="K141" s="25"/>
-      <c r="L141" s="30"/>
-      <c r="M141" s="20"/>
+      <c r="K141" s="24"/>
+      <c r="L141" s="28"/>
+      <c r="M141" s="23"/>
       <c r="N141" s="9"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A142" s="29"/>
-      <c r="B142" s="29"/>
-      <c r="C142" s="29"/>
-      <c r="D142" s="23" t="s">
+      <c r="A142" s="19"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E142" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="F142" s="1"/>
-      <c r="G142" s="25"/>
-      <c r="H142" s="30"/>
-      <c r="I142" s="30">
+      <c r="G142" s="24"/>
+      <c r="H142" s="28"/>
+      <c r="I142" s="28">
         <v>7.4</v>
       </c>
       <c r="J142" s="2">
         <v>3.6</v>
       </c>
-      <c r="K142" s="25"/>
-      <c r="L142" s="30"/>
-      <c r="M142" s="30">
+      <c r="K142" s="24"/>
+      <c r="L142" s="28"/>
+      <c r="M142" s="28">
         <v>7.1</v>
       </c>
       <c r="N142" s="3"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A143" s="29"/>
-      <c r="B143" s="29"/>
-      <c r="C143" s="29"/>
-      <c r="D143" s="24"/>
+      <c r="A143" s="19"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="21"/>
       <c r="E143" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F143" s="1"/>
-      <c r="G143" s="25"/>
-      <c r="H143" s="30"/>
-      <c r="I143" s="30"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="28"/>
+      <c r="I143" s="28"/>
       <c r="J143" s="2">
         <v>3.8</v>
       </c>
-      <c r="K143" s="25"/>
-      <c r="L143" s="30"/>
-      <c r="M143" s="30"/>
+      <c r="K143" s="24"/>
+      <c r="L143" s="28"/>
+      <c r="M143" s="28"/>
       <c r="N143" s="3"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A144" s="29"/>
-      <c r="B144" s="29"/>
-      <c r="C144" s="29" t="s">
+      <c r="A144" s="19"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D144" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="D144" s="23" t="s">
+      <c r="E144" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="F144" s="1"/>
-      <c r="G144" s="25"/>
-      <c r="H144" s="19">
+      <c r="G144" s="24"/>
+      <c r="H144" s="22">
         <v>20</v>
       </c>
-      <c r="I144" s="30">
+      <c r="I144" s="28">
         <v>18.7</v>
       </c>
       <c r="J144" s="2">
         <v>0.2</v>
       </c>
-      <c r="K144" s="25"/>
-      <c r="L144" s="19">
+      <c r="K144" s="24"/>
+      <c r="L144" s="22">
         <v>16.899999999999999</v>
       </c>
-      <c r="M144" s="19">
+      <c r="M144" s="22">
         <v>15.6</v>
       </c>
       <c r="N144" s="3"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A145" s="29"/>
-      <c r="B145" s="29"/>
-      <c r="C145" s="29"/>
-      <c r="D145" s="31"/>
+      <c r="A145" s="19"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="27"/>
       <c r="E145" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F145" s="1"/>
-      <c r="G145" s="25"/>
-      <c r="H145" s="25"/>
-      <c r="I145" s="30"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="24"/>
+      <c r="I145" s="28"/>
       <c r="J145" s="2">
         <v>0.7</v>
       </c>
-      <c r="K145" s="25"/>
-      <c r="L145" s="25"/>
-      <c r="M145" s="25"/>
+      <c r="K145" s="24"/>
+      <c r="L145" s="24"/>
+      <c r="M145" s="24"/>
       <c r="N145" s="3"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A146" s="29"/>
-      <c r="B146" s="29"/>
-      <c r="C146" s="29"/>
-      <c r="D146" s="31"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="27"/>
       <c r="E146" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F146" s="1"/>
-      <c r="G146" s="25"/>
-      <c r="H146" s="25"/>
-      <c r="I146" s="30"/>
+      <c r="G146" s="24"/>
+      <c r="H146" s="24"/>
+      <c r="I146" s="28"/>
       <c r="J146" s="2">
         <v>0.8</v>
       </c>
-      <c r="K146" s="25"/>
-      <c r="L146" s="25"/>
-      <c r="M146" s="25"/>
+      <c r="K146" s="24"/>
+      <c r="L146" s="24"/>
+      <c r="M146" s="24"/>
       <c r="N146" s="3"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A147" s="29"/>
-      <c r="B147" s="29"/>
-      <c r="C147" s="29"/>
-      <c r="D147" s="24"/>
+      <c r="A147" s="19"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="21"/>
       <c r="E147" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F147" s="1"/>
-      <c r="G147" s="25"/>
-      <c r="H147" s="25"/>
-      <c r="I147" s="30"/>
+      <c r="G147" s="24"/>
+      <c r="H147" s="24"/>
+      <c r="I147" s="28"/>
       <c r="J147" s="2">
         <v>14.6</v>
       </c>
-      <c r="K147" s="25"/>
-      <c r="L147" s="25"/>
-      <c r="M147" s="20"/>
+      <c r="K147" s="24"/>
+      <c r="L147" s="24"/>
+      <c r="M147" s="23"/>
       <c r="N147" s="3"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A148" s="29"/>
-      <c r="B148" s="29"/>
-      <c r="C148" s="29"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
       <c r="D148" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="F148" s="1"/>
-      <c r="G148" s="25"/>
-      <c r="H148" s="25"/>
+      <c r="G148" s="24"/>
+      <c r="H148" s="24"/>
       <c r="I148" s="1">
         <v>0.4</v>
       </c>
       <c r="J148" s="1">
         <v>0.4</v>
       </c>
-      <c r="K148" s="25"/>
-      <c r="L148" s="25"/>
+      <c r="K148" s="24"/>
+      <c r="L148" s="24"/>
       <c r="M148" s="1">
         <v>0.4</v>
       </c>
       <c r="N148" s="3"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A149" s="29"/>
-      <c r="B149" s="29"/>
-      <c r="C149" s="29"/>
+      <c r="A149" s="19"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="19"/>
       <c r="D149" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="F149" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G149" s="25"/>
-      <c r="H149" s="20"/>
+        <v>257</v>
+      </c>
+      <c r="G149" s="24"/>
+      <c r="H149" s="23"/>
       <c r="I149" s="1">
         <v>0.9</v>
       </c>
       <c r="J149" s="1">
         <v>0.4</v>
       </c>
-      <c r="K149" s="25"/>
-      <c r="L149" s="20"/>
+      <c r="K149" s="24"/>
+      <c r="L149" s="23"/>
       <c r="M149" s="1">
         <v>0.8</v>
       </c>
       <c r="N149" s="3"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A150" s="29"/>
-      <c r="B150" s="29"/>
-      <c r="C150" s="23" t="s">
+      <c r="A150" s="19"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="D150" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="E150" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="F150" s="1"/>
-      <c r="G150" s="25"/>
-      <c r="H150" s="19">
+      <c r="G150" s="24"/>
+      <c r="H150" s="22">
         <v>7.3</v>
       </c>
       <c r="I150" s="1">
@@ -6784,8 +6784,8 @@
       <c r="J150" s="2">
         <v>2.4</v>
       </c>
-      <c r="K150" s="25"/>
-      <c r="L150" s="19">
+      <c r="K150" s="24"/>
+      <c r="L150" s="22">
         <v>6.7</v>
       </c>
       <c r="M150" s="1">
@@ -6794,214 +6794,214 @@
       <c r="N150" s="3"/>
     </row>
     <row r="151" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A151" s="29"/>
-      <c r="B151" s="29"/>
-      <c r="C151" s="31"/>
+      <c r="A151" s="19"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="27"/>
       <c r="D151" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G151" s="24"/>
+      <c r="H151" s="24"/>
+      <c r="I151" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G151" s="25"/>
-      <c r="H151" s="25"/>
-      <c r="I151" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="J151" s="6">
         <v>1.2</v>
       </c>
-      <c r="K151" s="25"/>
-      <c r="L151" s="25"/>
+      <c r="K151" s="24"/>
+      <c r="L151" s="24"/>
       <c r="M151" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N151" s="3"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A152" s="29"/>
-      <c r="B152" s="29"/>
-      <c r="C152" s="31"/>
-      <c r="D152" s="23" t="s">
+      <c r="A152" s="19"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E152" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="F152" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G152" s="25"/>
-      <c r="H152" s="25"/>
-      <c r="I152" s="30" t="s">
-        <v>299</v>
+        <v>257</v>
+      </c>
+      <c r="G152" s="24"/>
+      <c r="H152" s="24"/>
+      <c r="I152" s="28" t="s">
+        <v>298</v>
       </c>
       <c r="J152" s="2">
         <v>0.1</v>
       </c>
-      <c r="K152" s="25"/>
-      <c r="L152" s="25"/>
-      <c r="M152" s="30" t="s">
-        <v>300</v>
+      <c r="K152" s="24"/>
+      <c r="L152" s="24"/>
+      <c r="M152" s="28" t="s">
+        <v>299</v>
       </c>
       <c r="N152" s="3"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A153" s="29"/>
-      <c r="B153" s="29"/>
-      <c r="C153" s="24"/>
-      <c r="D153" s="24"/>
+      <c r="A153" s="19"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="21"/>
       <c r="E153" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F153" s="1"/>
-      <c r="G153" s="25"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="30"/>
+      <c r="G153" s="24"/>
+      <c r="H153" s="23"/>
+      <c r="I153" s="28"/>
       <c r="J153" s="2">
         <v>0.6</v>
       </c>
-      <c r="K153" s="25"/>
-      <c r="L153" s="20"/>
-      <c r="M153" s="30"/>
+      <c r="K153" s="24"/>
+      <c r="L153" s="23"/>
+      <c r="M153" s="28"/>
       <c r="N153" s="3"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A154" s="29"/>
-      <c r="B154" s="29"/>
-      <c r="C154" s="23" t="s">
+      <c r="A154" s="19"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="D154" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="D154" s="35" t="s">
-        <v>306</v>
-      </c>
       <c r="E154" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F154" s="1"/>
-      <c r="G154" s="25"/>
-      <c r="H154" s="19">
+      <c r="G154" s="24"/>
+      <c r="H154" s="22">
         <v>4</v>
       </c>
-      <c r="I154" s="32">
+      <c r="I154" s="36">
         <v>1.4</v>
       </c>
       <c r="J154" s="1">
         <v>0.1</v>
       </c>
-      <c r="K154" s="25"/>
-      <c r="L154" s="19">
+      <c r="K154" s="24"/>
+      <c r="L154" s="22">
         <v>3.8</v>
       </c>
-      <c r="M154" s="32">
+      <c r="M154" s="36">
         <v>1.3</v>
       </c>
       <c r="N154" s="3"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A155" s="29"/>
-      <c r="B155" s="29"/>
-      <c r="C155" s="31"/>
-      <c r="D155" s="37"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="43"/>
       <c r="E155" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F155" s="1"/>
-      <c r="G155" s="25"/>
-      <c r="H155" s="25"/>
-      <c r="I155" s="32"/>
+      <c r="G155" s="24"/>
+      <c r="H155" s="24"/>
+      <c r="I155" s="36"/>
       <c r="J155" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K155" s="25"/>
-      <c r="L155" s="25"/>
-      <c r="M155" s="32"/>
+      <c r="K155" s="24"/>
+      <c r="L155" s="24"/>
+      <c r="M155" s="36"/>
       <c r="N155" s="3"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A156" s="29"/>
-      <c r="B156" s="29"/>
-      <c r="C156" s="31"/>
-      <c r="D156" s="36"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="44"/>
       <c r="E156" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F156" s="1"/>
-      <c r="G156" s="25"/>
-      <c r="H156" s="25"/>
-      <c r="I156" s="32"/>
+      <c r="G156" s="24"/>
+      <c r="H156" s="24"/>
+      <c r="I156" s="36"/>
       <c r="J156" s="2">
         <v>0.1</v>
       </c>
-      <c r="K156" s="25"/>
-      <c r="L156" s="25"/>
-      <c r="M156" s="32"/>
+      <c r="K156" s="24"/>
+      <c r="L156" s="24"/>
+      <c r="M156" s="36"/>
       <c r="N156" s="3"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A157" s="29"/>
-      <c r="B157" s="29"/>
-      <c r="C157" s="31"/>
-      <c r="D157" s="35" t="s">
+      <c r="A157" s="19"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="F157" s="1"/>
-      <c r="G157" s="25"/>
-      <c r="H157" s="25"/>
-      <c r="I157" s="19">
+      <c r="G157" s="24"/>
+      <c r="H157" s="24"/>
+      <c r="I157" s="22">
         <v>2.6</v>
       </c>
       <c r="J157" s="1">
         <v>0.1</v>
       </c>
-      <c r="K157" s="25"/>
-      <c r="L157" s="25"/>
-      <c r="M157" s="19">
+      <c r="K157" s="24"/>
+      <c r="L157" s="24"/>
+      <c r="M157" s="22">
         <v>2.6</v>
       </c>
       <c r="N157" s="3"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A158" s="29"/>
-      <c r="B158" s="29"/>
-      <c r="C158" s="24"/>
-      <c r="D158" s="36"/>
+      <c r="A158" s="19"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="21"/>
+      <c r="D158" s="44"/>
       <c r="E158" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F158" s="1"/>
-      <c r="G158" s="25"/>
-      <c r="H158" s="20"/>
-      <c r="I158" s="20"/>
+      <c r="G158" s="24"/>
+      <c r="H158" s="23"/>
+      <c r="I158" s="23"/>
       <c r="J158" s="2">
         <v>2.5</v>
       </c>
-      <c r="K158" s="25"/>
-      <c r="L158" s="20"/>
-      <c r="M158" s="20"/>
+      <c r="K158" s="24"/>
+      <c r="L158" s="23"/>
+      <c r="M158" s="23"/>
       <c r="N158" s="3"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A159" s="29"/>
-      <c r="B159" s="29"/>
-      <c r="C159" s="23" t="s">
+      <c r="A159" s="19"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D159" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="E159" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="F159" s="1"/>
-      <c r="G159" s="25"/>
-      <c r="H159" s="19">
+      <c r="G159" s="24"/>
+      <c r="H159" s="22">
         <v>0.5</v>
       </c>
       <c r="I159" s="1">
@@ -7010,8 +7010,8 @@
       <c r="J159" s="2">
         <v>0.5</v>
       </c>
-      <c r="K159" s="25"/>
-      <c r="L159" s="19">
+      <c r="K159" s="24"/>
+      <c r="L159" s="22">
         <v>0.5</v>
       </c>
       <c r="M159" s="1">
@@ -7020,86 +7020,86 @@
       <c r="N159" s="3"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A160" s="29"/>
-      <c r="B160" s="29"/>
-      <c r="C160" s="31"/>
-      <c r="D160" s="23" t="s">
-        <v>315</v>
+      <c r="A160" s="19"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="20" t="s">
+        <v>314</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F160" s="1"/>
-      <c r="G160" s="25"/>
-      <c r="H160" s="25"/>
-      <c r="I160" s="30" t="s">
-        <v>299</v>
+      <c r="G160" s="24"/>
+      <c r="H160" s="24"/>
+      <c r="I160" s="28" t="s">
+        <v>298</v>
       </c>
       <c r="J160" s="1">
         <v>1.2</v>
       </c>
-      <c r="K160" s="25"/>
-      <c r="L160" s="25"/>
-      <c r="M160" s="19" t="s">
-        <v>300</v>
+      <c r="K160" s="24"/>
+      <c r="L160" s="24"/>
+      <c r="M160" s="22" t="s">
+        <v>299</v>
       </c>
       <c r="N160" s="3"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A161" s="29"/>
-      <c r="B161" s="29"/>
-      <c r="C161" s="31"/>
-      <c r="D161" s="31"/>
+      <c r="A161" s="19"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="27"/>
       <c r="E161" s="1" t="s">
         <v>217</v>
       </c>
       <c r="F161" s="1"/>
-      <c r="G161" s="25"/>
-      <c r="H161" s="25"/>
-      <c r="I161" s="30"/>
+      <c r="G161" s="24"/>
+      <c r="H161" s="24"/>
+      <c r="I161" s="28"/>
       <c r="J161" s="2">
         <v>0.7</v>
       </c>
-      <c r="K161" s="25"/>
-      <c r="L161" s="25"/>
-      <c r="M161" s="25"/>
+      <c r="K161" s="24"/>
+      <c r="L161" s="24"/>
+      <c r="M161" s="24"/>
       <c r="N161" s="3"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A162" s="29"/>
-      <c r="B162" s="29"/>
-      <c r="C162" s="24"/>
-      <c r="D162" s="24"/>
+      <c r="A162" s="19"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="21"/>
+      <c r="D162" s="21"/>
       <c r="E162" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F162" s="1"/>
-      <c r="G162" s="25"/>
-      <c r="H162" s="20"/>
-      <c r="I162" s="30"/>
+      <c r="G162" s="24"/>
+      <c r="H162" s="23"/>
+      <c r="I162" s="28"/>
       <c r="J162" s="2">
         <v>0.2</v>
       </c>
-      <c r="K162" s="25"/>
-      <c r="L162" s="20"/>
-      <c r="M162" s="20"/>
+      <c r="K162" s="24"/>
+      <c r="L162" s="23"/>
+      <c r="M162" s="23"/>
       <c r="N162" s="3"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A163" s="29"/>
-      <c r="B163" s="29"/>
-      <c r="C163" s="29" t="s">
+      <c r="A163" s="19"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="E163" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E163" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="F163" s="1"/>
-      <c r="G163" s="25"/>
-      <c r="H163" s="19">
+      <c r="G163" s="24"/>
+      <c r="H163" s="22">
         <v>16.2</v>
       </c>
       <c r="I163" s="1">
@@ -7108,8 +7108,8 @@
       <c r="J163" s="2">
         <v>0.5</v>
       </c>
-      <c r="K163" s="25"/>
-      <c r="L163" s="19">
+      <c r="K163" s="24"/>
+      <c r="L163" s="22">
         <v>13.2</v>
       </c>
       <c r="M163" s="1">
@@ -7118,123 +7118,123 @@
       <c r="N163" s="3"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A164" s="29"/>
-      <c r="B164" s="29"/>
-      <c r="C164" s="29"/>
+      <c r="A164" s="19"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="19"/>
       <c r="D164" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E164" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="F164" s="1"/>
-      <c r="G164" s="25"/>
-      <c r="H164" s="20"/>
+      <c r="G164" s="24"/>
+      <c r="H164" s="23"/>
       <c r="I164" s="1">
         <v>15.7</v>
       </c>
       <c r="J164" s="1">
         <v>0.2</v>
       </c>
-      <c r="K164" s="25"/>
-      <c r="L164" s="20"/>
+      <c r="K164" s="24"/>
+      <c r="L164" s="23"/>
       <c r="M164" s="1">
         <v>13.1</v>
       </c>
       <c r="N164" s="3"/>
     </row>
     <row r="165" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="29"/>
-      <c r="B165" s="29"/>
-      <c r="C165" s="29" t="s">
+      <c r="A165" s="19"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D165" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="D165" s="23" t="s">
+      <c r="E165" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="F165" s="1"/>
-      <c r="G165" s="25"/>
-      <c r="H165" s="19">
+      <c r="G165" s="24"/>
+      <c r="H165" s="22">
         <v>2.4</v>
       </c>
-      <c r="I165" s="26">
+      <c r="I165" s="39">
         <v>1</v>
       </c>
       <c r="J165" s="1">
         <v>0.6</v>
       </c>
-      <c r="K165" s="25"/>
-      <c r="L165" s="19">
+      <c r="K165" s="24"/>
+      <c r="L165" s="22">
         <v>1.4</v>
       </c>
-      <c r="M165" s="26">
+      <c r="M165" s="39">
         <v>0.5</v>
       </c>
       <c r="N165" s="3"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A166" s="29"/>
-      <c r="B166" s="29"/>
-      <c r="C166" s="29"/>
-      <c r="D166" s="24"/>
+      <c r="A166" s="19"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="21"/>
       <c r="E166" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F166" s="1"/>
-      <c r="G166" s="25"/>
-      <c r="H166" s="25"/>
-      <c r="I166" s="28"/>
+      <c r="G166" s="24"/>
+      <c r="H166" s="24"/>
+      <c r="I166" s="41"/>
       <c r="J166" s="2">
         <v>0.3</v>
       </c>
-      <c r="K166" s="25"/>
-      <c r="L166" s="25"/>
-      <c r="M166" s="28"/>
+      <c r="K166" s="24"/>
+      <c r="L166" s="24"/>
+      <c r="M166" s="41"/>
       <c r="N166" s="3"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A167" s="29"/>
-      <c r="B167" s="29"/>
-      <c r="C167" s="29"/>
+      <c r="A167" s="19"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="19"/>
       <c r="D167" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="F167" s="1"/>
-      <c r="G167" s="20"/>
-      <c r="H167" s="20"/>
+      <c r="G167" s="23"/>
+      <c r="H167" s="23"/>
       <c r="I167" s="2">
         <v>1.3</v>
       </c>
       <c r="J167" s="1">
         <v>1.3</v>
       </c>
-      <c r="K167" s="20"/>
-      <c r="L167" s="20"/>
+      <c r="K167" s="23"/>
+      <c r="L167" s="23"/>
       <c r="M167" s="2">
         <v>0.9</v>
       </c>
       <c r="N167" s="3"/>
     </row>
     <row r="168" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A168" s="29"/>
-      <c r="B168" s="29" t="s">
+      <c r="A168" s="19"/>
+      <c r="B168" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F168" s="1"/>
-      <c r="G168" s="19">
+      <c r="G168" s="22">
         <v>58.6</v>
       </c>
       <c r="H168" s="1">
@@ -7244,7 +7244,7 @@
         <v>2</v>
       </c>
       <c r="J168" s="1"/>
-      <c r="K168" s="19"/>
+      <c r="K168" s="22"/>
       <c r="L168" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -7252,143 +7252,143 @@
       <c r="N168" s="3"/>
     </row>
     <row r="169" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A169" s="29"/>
-      <c r="B169" s="29"/>
+      <c r="A169" s="19"/>
+      <c r="B169" s="19"/>
       <c r="C169" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F169" s="1"/>
-      <c r="G169" s="25"/>
+      <c r="G169" s="24"/>
       <c r="H169" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I169" s="1"/>
       <c r="J169" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K169" s="24"/>
+      <c r="L169" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="K169" s="25"/>
-      <c r="L169" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="M169" s="1"/>
       <c r="N169" s="3"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A170" s="29"/>
-      <c r="B170" s="29"/>
-      <c r="C170" s="23" t="s">
+      <c r="A170" s="19"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="D170" s="26"/>
+      <c r="E170" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D170" s="21"/>
-      <c r="E170" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="F170" s="1"/>
-      <c r="G170" s="25"/>
-      <c r="H170" s="30">
+      <c r="G170" s="24"/>
+      <c r="H170" s="28">
         <v>56.6</v>
       </c>
       <c r="I170" s="1"/>
       <c r="J170" s="2">
         <v>20.5</v>
       </c>
-      <c r="K170" s="25"/>
-      <c r="L170" s="30">
+      <c r="K170" s="24"/>
+      <c r="L170" s="28">
         <v>43.8</v>
       </c>
       <c r="M170" s="1"/>
       <c r="N170" s="3"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A171" s="29"/>
-      <c r="B171" s="29"/>
-      <c r="C171" s="24"/>
-      <c r="D171" s="22"/>
+      <c r="A171" s="19"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="34"/>
       <c r="E171" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F171" s="1"/>
-      <c r="G171" s="20"/>
-      <c r="H171" s="30"/>
+      <c r="G171" s="23"/>
+      <c r="H171" s="28"/>
       <c r="I171" s="1"/>
       <c r="J171" s="2">
         <v>17.3</v>
       </c>
-      <c r="K171" s="20"/>
-      <c r="L171" s="30"/>
+      <c r="K171" s="23"/>
+      <c r="L171" s="28"/>
       <c r="M171" s="1"/>
       <c r="N171" s="3"/>
     </row>
     <row r="172" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="29" t="s">
+      <c r="A172" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="B172" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="B172" s="29" t="s">
+      <c r="C172" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="C172" s="23" t="s">
+      <c r="D172" s="25"/>
+      <c r="E172" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D172" s="33"/>
-      <c r="E172" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="F172" s="1"/>
-      <c r="G172" s="19">
+      <c r="G172" s="22">
         <v>237.8</v>
       </c>
-      <c r="H172" s="19">
+      <c r="H172" s="22">
         <v>213.5</v>
       </c>
       <c r="I172" s="1"/>
       <c r="J172" s="1">
         <v>191.5</v>
       </c>
-      <c r="K172" s="19"/>
-      <c r="L172" s="19">
+      <c r="K172" s="22"/>
+      <c r="L172" s="22">
         <v>163.9</v>
       </c>
       <c r="M172" s="1"/>
       <c r="N172" s="3"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A173" s="29"/>
-      <c r="B173" s="29"/>
-      <c r="C173" s="24"/>
-      <c r="D173" s="33"/>
+      <c r="A173" s="19"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="25"/>
       <c r="E173" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G173" s="25"/>
-      <c r="H173" s="20"/>
+        <v>257</v>
+      </c>
+      <c r="G173" s="24"/>
+      <c r="H173" s="23"/>
       <c r="I173" s="1"/>
       <c r="J173" s="2">
         <v>12</v>
       </c>
-      <c r="K173" s="25"/>
-      <c r="L173" s="20"/>
+      <c r="K173" s="24"/>
+      <c r="L173" s="23"/>
       <c r="M173" s="1"/>
       <c r="N173" s="3"/>
     </row>
     <row r="174" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A174" s="29"/>
-      <c r="B174" s="29"/>
+      <c r="A174" s="19"/>
+      <c r="B174" s="19"/>
       <c r="C174" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D174" s="4"/>
       <c r="E174" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F174" s="1"/>
-      <c r="G174" s="25"/>
+      <c r="G174" s="24"/>
       <c r="H174" s="1">
         <v>11.2</v>
       </c>
@@ -7396,7 +7396,7 @@
       <c r="J174" s="2">
         <v>11.2</v>
       </c>
-      <c r="K174" s="25"/>
+      <c r="K174" s="24"/>
       <c r="L174" s="1">
         <v>8.4</v>
       </c>
@@ -7404,17 +7404,17 @@
       <c r="N174" s="3"/>
     </row>
     <row r="175" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A175" s="29"/>
-      <c r="B175" s="29"/>
+      <c r="A175" s="19"/>
+      <c r="B175" s="19"/>
       <c r="C175" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D175" s="4"/>
       <c r="E175" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F175" s="1"/>
-      <c r="G175" s="25"/>
+      <c r="G175" s="24"/>
       <c r="H175" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -7422,7 +7422,7 @@
       <c r="J175" s="2">
         <v>0.9</v>
       </c>
-      <c r="K175" s="25"/>
+      <c r="K175" s="24"/>
       <c r="L175" s="1">
         <v>0.4</v>
       </c>
@@ -7430,151 +7430,151 @@
       <c r="N175" s="3"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A176" s="29"/>
-      <c r="B176" s="29"/>
-      <c r="C176" s="23" t="s">
+      <c r="A176" s="19"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="D176" s="26"/>
+      <c r="E176" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D176" s="21"/>
-      <c r="E176" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="F176" s="1"/>
-      <c r="G176" s="25"/>
-      <c r="H176" s="30">
+      <c r="G176" s="24"/>
+      <c r="H176" s="28">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I176" s="30"/>
+      <c r="I176" s="28"/>
       <c r="J176" s="1">
         <v>1.5</v>
       </c>
-      <c r="K176" s="25"/>
-      <c r="L176" s="30">
+      <c r="K176" s="24"/>
+      <c r="L176" s="28">
         <v>9.3000000000000007</v>
       </c>
       <c r="M176" s="1"/>
       <c r="N176" s="3"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A177" s="29"/>
-      <c r="B177" s="29"/>
-      <c r="C177" s="24"/>
-      <c r="D177" s="22"/>
+      <c r="A177" s="19"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="34"/>
       <c r="E177" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F177" s="1"/>
-      <c r="G177" s="25"/>
-      <c r="H177" s="30"/>
-      <c r="I177" s="30"/>
+      <c r="G177" s="24"/>
+      <c r="H177" s="28"/>
+      <c r="I177" s="28"/>
       <c r="J177" s="2">
         <v>7.9</v>
       </c>
-      <c r="K177" s="25"/>
-      <c r="L177" s="30"/>
+      <c r="K177" s="24"/>
+      <c r="L177" s="28"/>
       <c r="M177" s="1"/>
       <c r="N177" s="3"/>
     </row>
     <row r="178" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="29"/>
-      <c r="B178" s="29"/>
-      <c r="C178" s="23" t="s">
+      <c r="A178" s="19"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="D178" s="26"/>
+      <c r="E178" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D178" s="21"/>
-      <c r="E178" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="F178" s="1"/>
-      <c r="G178" s="25"/>
-      <c r="H178" s="30">
+      <c r="G178" s="24"/>
+      <c r="H178" s="28">
         <v>2.6</v>
       </c>
-      <c r="I178" s="30"/>
+      <c r="I178" s="28"/>
       <c r="J178" s="1">
         <v>0.2</v>
       </c>
-      <c r="K178" s="25"/>
-      <c r="L178" s="30">
+      <c r="K178" s="24"/>
+      <c r="L178" s="28">
         <v>1.4</v>
       </c>
       <c r="M178" s="1"/>
       <c r="N178" s="3"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A179" s="29"/>
-      <c r="B179" s="29"/>
-      <c r="C179" s="31"/>
-      <c r="D179" s="34"/>
+      <c r="A179" s="19"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="27"/>
+      <c r="D179" s="33"/>
       <c r="E179" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F179" s="1"/>
-      <c r="G179" s="25"/>
-      <c r="H179" s="30"/>
-      <c r="I179" s="30"/>
+      <c r="G179" s="24"/>
+      <c r="H179" s="28"/>
+      <c r="I179" s="28"/>
       <c r="J179" s="2">
         <v>0.2</v>
       </c>
-      <c r="K179" s="25"/>
-      <c r="L179" s="30"/>
+      <c r="K179" s="24"/>
+      <c r="L179" s="28"/>
       <c r="M179" s="1"/>
       <c r="N179" s="3"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A180" s="29"/>
-      <c r="B180" s="29"/>
-      <c r="C180" s="31"/>
-      <c r="D180" s="34"/>
+      <c r="A180" s="19"/>
+      <c r="B180" s="19"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="33"/>
       <c r="E180" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F180" s="1"/>
-      <c r="G180" s="25"/>
-      <c r="H180" s="30"/>
-      <c r="I180" s="30"/>
+      <c r="G180" s="24"/>
+      <c r="H180" s="28"/>
+      <c r="I180" s="28"/>
       <c r="J180" s="2">
         <v>1</v>
       </c>
-      <c r="K180" s="25"/>
-      <c r="L180" s="30"/>
+      <c r="K180" s="24"/>
+      <c r="L180" s="28"/>
       <c r="M180" s="1"/>
       <c r="N180" s="3"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A181" s="29"/>
-      <c r="B181" s="29"/>
-      <c r="C181" s="24"/>
-      <c r="D181" s="22"/>
+      <c r="A181" s="19"/>
+      <c r="B181" s="19"/>
+      <c r="C181" s="21"/>
+      <c r="D181" s="34"/>
       <c r="E181" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F181" s="1"/>
-      <c r="G181" s="25"/>
-      <c r="H181" s="30"/>
-      <c r="I181" s="30"/>
+      <c r="G181" s="24"/>
+      <c r="H181" s="28"/>
+      <c r="I181" s="28"/>
       <c r="J181" s="2">
         <v>1.2</v>
       </c>
-      <c r="K181" s="25"/>
-      <c r="L181" s="30"/>
+      <c r="K181" s="24"/>
+      <c r="L181" s="28"/>
       <c r="M181" s="1"/>
       <c r="N181" s="3"/>
     </row>
     <row r="182" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A182" s="29"/>
-      <c r="B182" s="29"/>
+      <c r="A182" s="19"/>
+      <c r="B182" s="19"/>
       <c r="C182" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G182" s="20"/>
+      <c r="G182" s="23"/>
       <c r="H182" s="1">
         <v>2</v>
       </c>
@@ -7582,25 +7582,25 @@
       <c r="J182" s="1">
         <v>2</v>
       </c>
-      <c r="K182" s="20"/>
+      <c r="K182" s="23"/>
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
       <c r="N182" s="3"/>
     </row>
     <row r="183" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A183" s="29"/>
-      <c r="B183" s="29" t="s">
+      <c r="A183" s="19"/>
+      <c r="B183" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F183" s="1"/>
-      <c r="G183" s="19">
+      <c r="G183" s="22">
         <v>53.6</v>
       </c>
       <c r="H183" s="2">
@@ -7610,7 +7610,7 @@
         <v>1.7</v>
       </c>
       <c r="J183" s="1"/>
-      <c r="K183" s="19"/>
+      <c r="K183" s="22"/>
       <c r="L183" s="1">
         <v>0.8</v>
       </c>
@@ -7618,63 +7618,63 @@
       <c r="N183" s="3"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A184" s="29"/>
-      <c r="B184" s="29"/>
-      <c r="C184" s="23" t="s">
+      <c r="A184" s="19"/>
+      <c r="B184" s="19"/>
+      <c r="C184" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="D184" s="26"/>
+      <c r="E184" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D184" s="21"/>
-      <c r="E184" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="F184" s="1"/>
-      <c r="G184" s="25"/>
-      <c r="H184" s="32">
+      <c r="G184" s="24"/>
+      <c r="H184" s="36">
         <v>16.2</v>
       </c>
-      <c r="I184" s="32"/>
+      <c r="I184" s="36"/>
       <c r="J184" s="1">
         <v>13.3</v>
       </c>
-      <c r="K184" s="25"/>
-      <c r="L184" s="19">
+      <c r="K184" s="24"/>
+      <c r="L184" s="22">
         <v>5.8</v>
       </c>
       <c r="M184" s="1"/>
       <c r="N184" s="3"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A185" s="29"/>
-      <c r="B185" s="29"/>
-      <c r="C185" s="24"/>
-      <c r="D185" s="22"/>
+      <c r="A185" s="19"/>
+      <c r="B185" s="19"/>
+      <c r="C185" s="21"/>
+      <c r="D185" s="34"/>
       <c r="E185" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F185" s="1"/>
-      <c r="G185" s="25"/>
-      <c r="H185" s="32"/>
-      <c r="I185" s="32"/>
+      <c r="G185" s="24"/>
+      <c r="H185" s="36"/>
+      <c r="I185" s="36"/>
       <c r="J185" s="1">
         <v>2.8</v>
       </c>
-      <c r="K185" s="25"/>
-      <c r="L185" s="20"/>
+      <c r="K185" s="24"/>
+      <c r="L185" s="23"/>
       <c r="M185" s="1"/>
       <c r="N185" s="3"/>
     </row>
     <row r="186" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A186" s="29"/>
-      <c r="B186" s="29"/>
+      <c r="A186" s="19"/>
+      <c r="B186" s="19"/>
       <c r="C186" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D186" s="4"/>
       <c r="E186" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F186" s="1"/>
-      <c r="G186" s="25"/>
+      <c r="G186" s="24"/>
       <c r="H186" s="1">
         <v>5.8</v>
       </c>
@@ -7682,7 +7682,7 @@
       <c r="J186" s="1">
         <v>5.8</v>
       </c>
-      <c r="K186" s="25"/>
+      <c r="K186" s="24"/>
       <c r="L186" s="1">
         <v>5.2</v>
       </c>
@@ -7690,20 +7690,20 @@
       <c r="N186" s="3"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A187" s="29"/>
-      <c r="B187" s="29"/>
-      <c r="C187" s="29" t="s">
+      <c r="A187" s="19"/>
+      <c r="B187" s="19"/>
+      <c r="C187" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D187" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D187" s="4" t="s">
+      <c r="E187" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E187" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="F187" s="1"/>
-      <c r="G187" s="25"/>
-      <c r="H187" s="26">
+      <c r="G187" s="24"/>
+      <c r="H187" s="39">
         <v>29.9</v>
       </c>
       <c r="I187" s="1">
@@ -7712,8 +7712,8 @@
       <c r="J187" s="2">
         <v>7.9</v>
       </c>
-      <c r="K187" s="25"/>
-      <c r="L187" s="19">
+      <c r="K187" s="24"/>
+      <c r="L187" s="22">
         <v>24.7</v>
       </c>
       <c r="M187" s="1">
@@ -7722,120 +7722,120 @@
       <c r="N187" s="3"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A188" s="29"/>
-      <c r="B188" s="29"/>
-      <c r="C188" s="29"/>
+      <c r="A188" s="19"/>
+      <c r="B188" s="19"/>
+      <c r="C188" s="19"/>
       <c r="D188" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="F188" s="1"/>
-      <c r="G188" s="25"/>
-      <c r="H188" s="27"/>
+      <c r="G188" s="24"/>
+      <c r="H188" s="40"/>
       <c r="I188" s="1">
         <v>8</v>
       </c>
       <c r="J188" s="2">
         <v>8</v>
       </c>
-      <c r="K188" s="25"/>
-      <c r="L188" s="25"/>
+      <c r="K188" s="24"/>
+      <c r="L188" s="24"/>
       <c r="M188" s="1">
         <v>6.6</v>
       </c>
       <c r="N188" s="3"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A189" s="29"/>
-      <c r="B189" s="29"/>
-      <c r="C189" s="29"/>
+      <c r="A189" s="19"/>
+      <c r="B189" s="19"/>
+      <c r="C189" s="19"/>
       <c r="D189" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F189" s="1"/>
-      <c r="G189" s="25"/>
-      <c r="H189" s="27"/>
+      <c r="G189" s="24"/>
+      <c r="H189" s="40"/>
       <c r="I189" s="2">
         <v>1.4</v>
       </c>
       <c r="J189" s="2">
         <v>1.4</v>
       </c>
-      <c r="K189" s="25"/>
-      <c r="L189" s="25"/>
+      <c r="K189" s="24"/>
+      <c r="L189" s="24"/>
       <c r="M189" s="1">
         <v>0</v>
       </c>
       <c r="N189" s="3"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A190" s="29"/>
-      <c r="B190" s="29"/>
-      <c r="C190" s="29"/>
+      <c r="A190" s="19"/>
+      <c r="B190" s="19"/>
+      <c r="C190" s="19"/>
       <c r="D190" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F190" s="1"/>
-      <c r="G190" s="25"/>
-      <c r="H190" s="27"/>
+      <c r="G190" s="24"/>
+      <c r="H190" s="40"/>
       <c r="I190" s="2">
         <v>2.8</v>
       </c>
       <c r="J190" s="1">
         <v>2.8</v>
       </c>
-      <c r="K190" s="25"/>
-      <c r="L190" s="25"/>
+      <c r="K190" s="24"/>
+      <c r="L190" s="24"/>
       <c r="M190" s="2">
         <v>0.8</v>
       </c>
       <c r="N190" s="3"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A191" s="29"/>
-      <c r="B191" s="29"/>
-      <c r="C191" s="29"/>
+      <c r="A191" s="19"/>
+      <c r="B191" s="19"/>
+      <c r="C191" s="19"/>
       <c r="D191" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="F191" s="1"/>
-      <c r="G191" s="20"/>
-      <c r="H191" s="28"/>
+      <c r="G191" s="23"/>
+      <c r="H191" s="41"/>
       <c r="I191" s="2">
         <v>9.8000000000000007</v>
       </c>
       <c r="J191" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="K191" s="20"/>
-      <c r="L191" s="20"/>
+      <c r="K191" s="23"/>
+      <c r="L191" s="23"/>
       <c r="M191" s="2">
         <v>14.7</v>
       </c>
       <c r="N191" s="3"/>
     </row>
     <row r="192" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A192" s="29"/>
+      <c r="A192" s="19"/>
       <c r="B192" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C192" s="13" t="s">
         <v>377</v>
-      </c>
-      <c r="C192" s="13" t="s">
-        <v>378</v>
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F192" s="1"/>
       <c r="G192" s="1">
@@ -7856,17 +7856,17 @@
       <c r="N192" s="3"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A193" s="29"/>
-      <c r="B193" s="23" t="s">
+      <c r="A193" s="19"/>
+      <c r="B193" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C193" s="13" t="s">
         <v>380</v>
-      </c>
-      <c r="C193" s="13" t="s">
-        <v>381</v>
       </c>
       <c r="D193" s="4"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
-      <c r="G193" s="19">
+      <c r="G193" s="22">
         <v>949.4</v>
       </c>
       <c r="H193" s="1">
@@ -7874,33 +7874,300 @@
       </c>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
-      <c r="K193" s="19"/>
+      <c r="K193" s="22"/>
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
       <c r="N193" s="3"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A194" s="29"/>
-      <c r="B194" s="24"/>
+      <c r="A194" s="19"/>
+      <c r="B194" s="21"/>
       <c r="C194" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D194" s="4"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
-      <c r="G194" s="20"/>
+      <c r="G194" s="23"/>
       <c r="H194" s="1">
         <v>317.8</v>
       </c>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
-      <c r="K194" s="20"/>
+      <c r="K194" s="23"/>
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
       <c r="N194" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="291">
+    <mergeCell ref="L184:L185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="L187:L191"/>
+    <mergeCell ref="H187:H191"/>
+    <mergeCell ref="G183:G191"/>
+    <mergeCell ref="K183:K191"/>
+    <mergeCell ref="C187:C191"/>
+    <mergeCell ref="I176:I177"/>
+    <mergeCell ref="H176:H177"/>
+    <mergeCell ref="L176:L177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="I178:I181"/>
+    <mergeCell ref="H178:H181"/>
+    <mergeCell ref="L178:L181"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="B183:B191"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="K193:K194"/>
+    <mergeCell ref="A172:A194"/>
+    <mergeCell ref="I184:I185"/>
+    <mergeCell ref="H184:H185"/>
+    <mergeCell ref="A123:A171"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="H172:H173"/>
+    <mergeCell ref="B123:B129"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="L172:L173"/>
+    <mergeCell ref="B172:B182"/>
+    <mergeCell ref="L163:L164"/>
+    <mergeCell ref="H163:H164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="L150:L153"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="I154:I156"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="B130:B167"/>
+    <mergeCell ref="D178:D181"/>
+    <mergeCell ref="G172:G182"/>
+    <mergeCell ref="K172:K182"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="L170:L171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="B168:B171"/>
+    <mergeCell ref="G168:G171"/>
+    <mergeCell ref="K168:K171"/>
+    <mergeCell ref="M165:M166"/>
+    <mergeCell ref="I165:I166"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="L165:L167"/>
+    <mergeCell ref="H165:H167"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="G130:G167"/>
+    <mergeCell ref="K130:K167"/>
+    <mergeCell ref="M157:M158"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="C154:C158"/>
+    <mergeCell ref="H154:H158"/>
+    <mergeCell ref="L154:L158"/>
+    <mergeCell ref="I160:I162"/>
+    <mergeCell ref="H159:H162"/>
+    <mergeCell ref="M160:M162"/>
+    <mergeCell ref="L159:L162"/>
+    <mergeCell ref="D160:D162"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="I152:I153"/>
+    <mergeCell ref="M152:M153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="H150:H153"/>
+    <mergeCell ref="M154:M156"/>
+    <mergeCell ref="D154:D156"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="M142:M143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="C137:C143"/>
+    <mergeCell ref="H137:H143"/>
+    <mergeCell ref="L137:L143"/>
+    <mergeCell ref="I144:I147"/>
+    <mergeCell ref="D144:D147"/>
+    <mergeCell ref="L144:L149"/>
+    <mergeCell ref="M144:M147"/>
+    <mergeCell ref="H144:H149"/>
+    <mergeCell ref="C144:C149"/>
+    <mergeCell ref="M135:M136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="C130:C136"/>
+    <mergeCell ref="H130:H136"/>
+    <mergeCell ref="L130:L136"/>
+    <mergeCell ref="I137:I141"/>
+    <mergeCell ref="M137:M141"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="L128:L129"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="G123:G129"/>
+    <mergeCell ref="K123:K129"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="I130:I134"/>
+    <mergeCell ref="M130:M134"/>
+    <mergeCell ref="D130:D134"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="M123:M124"/>
+    <mergeCell ref="L123:L125"/>
+    <mergeCell ref="H123:H125"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="L126:L127"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="L11:L18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="I2:I9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="H2:H10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="L2:L10"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="H38:H44"/>
+    <mergeCell ref="L38:L44"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="G33:G44"/>
+    <mergeCell ref="K33:K44"/>
+    <mergeCell ref="A2:A32"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="L33:L36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="G2:G29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B2:B29"/>
+    <mergeCell ref="K2:K29"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A33:A96"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="H45:H53"/>
+    <mergeCell ref="L45:L53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="C45:C53"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="B45:B68"/>
+    <mergeCell ref="G45:G68"/>
+    <mergeCell ref="K45:K68"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="M66:M68"/>
+    <mergeCell ref="L66:L68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="L61:L65"/>
+    <mergeCell ref="H61:H65"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="L57:L59"/>
+    <mergeCell ref="B69:B83"/>
+    <mergeCell ref="G69:G83"/>
+    <mergeCell ref="K69:K83"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="L81:L83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="K84:K90"/>
+    <mergeCell ref="B84:B90"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="H91:H95"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="I86:I89"/>
+    <mergeCell ref="H86:H89"/>
+    <mergeCell ref="L86:L89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="G84:G90"/>
+    <mergeCell ref="M102:M104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="H101:H104"/>
+    <mergeCell ref="G97:G105"/>
+    <mergeCell ref="L91:L95"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="G91:G96"/>
+    <mergeCell ref="K91:K96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="L97:L98"/>
+    <mergeCell ref="B97:B105"/>
+    <mergeCell ref="K97:K105"/>
+    <mergeCell ref="M112:M113"/>
+    <mergeCell ref="H111:H113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="I106:I109"/>
+    <mergeCell ref="H106:H109"/>
+    <mergeCell ref="L106:L109"/>
+    <mergeCell ref="M106:M109"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="C106:C109"/>
     <mergeCell ref="A97:A122"/>
     <mergeCell ref="C120:C121"/>
     <mergeCell ref="H120:H121"/>
@@ -7925,273 +8192,6 @@
     <mergeCell ref="H99:H100"/>
     <mergeCell ref="C99:C100"/>
     <mergeCell ref="I102:I104"/>
-    <mergeCell ref="M112:M113"/>
-    <mergeCell ref="H111:H113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="I106:I109"/>
-    <mergeCell ref="H106:H109"/>
-    <mergeCell ref="L106:L109"/>
-    <mergeCell ref="M106:M109"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="M102:M104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="H101:H104"/>
-    <mergeCell ref="G97:G105"/>
-    <mergeCell ref="L91:L95"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="G91:G96"/>
-    <mergeCell ref="K91:K96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="L97:L98"/>
-    <mergeCell ref="B97:B105"/>
-    <mergeCell ref="K97:K105"/>
-    <mergeCell ref="K84:K90"/>
-    <mergeCell ref="B84:B90"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="H91:H95"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="I86:I89"/>
-    <mergeCell ref="H86:H89"/>
-    <mergeCell ref="L86:L89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="G84:G90"/>
-    <mergeCell ref="B69:B83"/>
-    <mergeCell ref="G69:G83"/>
-    <mergeCell ref="K69:K83"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="L81:L83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="B45:B68"/>
-    <mergeCell ref="G45:G68"/>
-    <mergeCell ref="K45:K68"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="M66:M68"/>
-    <mergeCell ref="L66:L68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="L61:L65"/>
-    <mergeCell ref="H61:H65"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="L57:L59"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="H45:H53"/>
-    <mergeCell ref="L45:L53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="C45:C53"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="H38:H44"/>
-    <mergeCell ref="L38:L44"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="B33:B44"/>
-    <mergeCell ref="G33:G44"/>
-    <mergeCell ref="K33:K44"/>
-    <mergeCell ref="A2:A32"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="L33:L36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="G2:G29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B2:B29"/>
-    <mergeCell ref="K2:K29"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A33:A96"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="L11:L18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="I2:I9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="H2:H10"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="L2:L10"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="M135:M136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="C130:C136"/>
-    <mergeCell ref="H130:H136"/>
-    <mergeCell ref="L130:L136"/>
-    <mergeCell ref="I137:I141"/>
-    <mergeCell ref="M137:M141"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="L128:L129"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="G123:G129"/>
-    <mergeCell ref="K123:K129"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="I130:I134"/>
-    <mergeCell ref="M130:M134"/>
-    <mergeCell ref="D130:D134"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="M123:M124"/>
-    <mergeCell ref="L123:L125"/>
-    <mergeCell ref="H123:H125"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="L126:L127"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="M154:M156"/>
-    <mergeCell ref="D154:D156"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="M142:M143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="C137:C143"/>
-    <mergeCell ref="H137:H143"/>
-    <mergeCell ref="L137:L143"/>
-    <mergeCell ref="I144:I147"/>
-    <mergeCell ref="D144:D147"/>
-    <mergeCell ref="L144:L149"/>
-    <mergeCell ref="M144:M147"/>
-    <mergeCell ref="H144:H149"/>
-    <mergeCell ref="C144:C149"/>
-    <mergeCell ref="M165:M166"/>
-    <mergeCell ref="I165:I166"/>
-    <mergeCell ref="D165:D166"/>
-    <mergeCell ref="L165:L167"/>
-    <mergeCell ref="H165:H167"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="G130:G167"/>
-    <mergeCell ref="K130:K167"/>
-    <mergeCell ref="M157:M158"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="C154:C158"/>
-    <mergeCell ref="H154:H158"/>
-    <mergeCell ref="L154:L158"/>
-    <mergeCell ref="I160:I162"/>
-    <mergeCell ref="H159:H162"/>
-    <mergeCell ref="M160:M162"/>
-    <mergeCell ref="L159:L162"/>
-    <mergeCell ref="D160:D162"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="M152:M153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="H150:H153"/>
-    <mergeCell ref="L172:L173"/>
-    <mergeCell ref="B172:B182"/>
-    <mergeCell ref="L163:L164"/>
-    <mergeCell ref="H163:H164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="L150:L153"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="I154:I156"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="B130:B167"/>
-    <mergeCell ref="D178:D181"/>
-    <mergeCell ref="G172:G182"/>
-    <mergeCell ref="K172:K182"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="L170:L171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="G168:G171"/>
-    <mergeCell ref="K168:K171"/>
-    <mergeCell ref="B183:B191"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="G193:G194"/>
-    <mergeCell ref="K193:K194"/>
-    <mergeCell ref="A172:A194"/>
-    <mergeCell ref="I184:I185"/>
-    <mergeCell ref="H184:H185"/>
-    <mergeCell ref="A123:A171"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="H172:H173"/>
-    <mergeCell ref="B123:B129"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="L184:L185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="L187:L191"/>
-    <mergeCell ref="H187:H191"/>
-    <mergeCell ref="G183:G191"/>
-    <mergeCell ref="K183:K191"/>
-    <mergeCell ref="C187:C191"/>
-    <mergeCell ref="I176:I177"/>
-    <mergeCell ref="H176:H177"/>
-    <mergeCell ref="L176:L177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="I178:I181"/>
-    <mergeCell ref="H178:H181"/>
-    <mergeCell ref="L178:L181"/>
-    <mergeCell ref="C178:C181"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
